--- a/Cases_НТ.xlsx
+++ b/Cases_НТ.xlsx
@@ -331,9 +331,6 @@
     <t>ТС-6. Log out и повторная авторизация с валидными данными</t>
   </si>
   <si>
-    <t xml:space="preserve">См. TC - 1 </t>
-  </si>
-  <si>
     <t>2. В верхнем левом углу через гамбургер вернуться на главный экран - выбрать и нажать на "Main"</t>
   </si>
   <si>
@@ -1176,6 +1173,9 @@
       <t xml:space="preserve"> - Условия пользовательского соглашения не отображаются на экране.
 БАГ?</t>
     </r>
+  </si>
+  <si>
+    <t>пользователь авторизован</t>
   </si>
 </sst>
 </file>
@@ -1936,75 +1936,261 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2048,11 +2234,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2062,54 +2260,22 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2134,180 +2300,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2965,7 +2965,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2975,8 +2975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H218" sqref="H218:H221"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D218" sqref="D218:D221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3029,40 +3029,40 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="138"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="213"/>
+      <c r="G3" s="213"/>
+      <c r="H3" s="214"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="139"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="141"/>
+      <c r="A4" s="215"/>
+      <c r="B4" s="216"/>
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96"/>
-      <c r="B5" s="158" t="s">
+      <c r="A5" s="98"/>
+      <c r="B5" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="159" t="s">
-        <v>261</v>
-      </c>
-      <c r="D5" s="115" t="s">
+      <c r="C5" s="104" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="161" t="s">
-        <v>302</v>
+      <c r="E5" s="225" t="s">
+        <v>301</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>45</v>
@@ -3070,45 +3070,45 @@
       <c r="G5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="164"/>
+      <c r="H5" s="228"/>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="157"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="162"/>
+      <c r="A6" s="223"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="224"/>
+      <c r="E6" s="226"/>
       <c r="F6" s="10" t="s">
         <v>47</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="H6" s="165"/>
+        <v>302</v>
+      </c>
+      <c r="H6" s="229"/>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="157"/>
-      <c r="B7" s="155"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="162"/>
+      <c r="A7" s="223"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="226"/>
       <c r="F7" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="H7" s="165"/>
+        <v>303</v>
+      </c>
+      <c r="H7" s="229"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="157"/>
-      <c r="B8" s="155"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="163"/>
+      <c r="A8" s="223"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="227"/>
       <c r="F8" s="58"/>
       <c r="G8" s="58"/>
-      <c r="H8" s="165"/>
+      <c r="H8" s="229"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="53"/>
@@ -3118,43 +3118,43 @@
       <c r="E9" s="55"/>
       <c r="F9" s="47"/>
       <c r="G9" s="47"/>
-      <c r="H9" s="165"/>
+      <c r="H9" s="229"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="53"/>
       <c r="B10" s="67"/>
       <c r="C10" s="73" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D10" s="54" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="55"/>
       <c r="F10" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="G10" s="47" t="s">
         <v>296</v>
       </c>
-      <c r="G10" s="47" t="s">
-        <v>297</v>
-      </c>
-      <c r="H10" s="165"/>
+      <c r="H10" s="229"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
       <c r="B11" s="67"/>
       <c r="C11" s="73" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D11" s="54" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="55"/>
       <c r="F11" s="47" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="H11" s="165"/>
+        <v>300</v>
+      </c>
+      <c r="H11" s="229"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
@@ -3164,29 +3164,29 @@
       <c r="E12" s="54"/>
       <c r="F12" s="17"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="166"/>
+      <c r="H12" s="230"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="219"/>
-      <c r="B13" s="142"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="92"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="93"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="93" t="s">
-        <v>305</v>
-      </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="95"/>
+      <c r="A14" s="94" t="s">
+        <v>304</v>
+      </c>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="97"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
@@ -3199,19 +3199,19 @@
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="159" t="s">
-        <v>260</v>
-      </c>
-      <c r="D16" s="115" t="s">
+      <c r="C16" s="104" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="134" t="s">
+      <c r="E16" s="110" t="s">
         <v>69</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -3220,76 +3220,76 @@
       <c r="G16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="158" t="s">
+      <c r="H16" s="112" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="220"/>
-      <c r="B17" s="148"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="105"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="111"/>
       <c r="F17" s="4" t="s">
         <v>50</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="155"/>
+      <c r="H17" s="113"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="220"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="150"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="105"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="111"/>
       <c r="F18" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="155"/>
+      <c r="H18" s="113"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="220"/>
-      <c r="B19" s="148"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="105"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="111"/>
       <c r="F19" s="4" t="s">
         <v>53</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="155"/>
+      <c r="H19" s="113"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="221"/>
-      <c r="B20" s="223"/>
-      <c r="C20" s="224"/>
-      <c r="D20" s="117"/>
+      <c r="A20" s="100"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="109"/>
       <c r="E20" s="82"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="178"/>
+      <c r="H20" s="114"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="222" t="s">
+      <c r="B21" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="100" t="s">
-        <v>262</v>
-      </c>
-      <c r="D21" s="115" t="s">
+      <c r="C21" s="133" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="134" t="s">
+      <c r="E21" s="110" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="9" t="s">
@@ -3298,76 +3298,76 @@
       <c r="G21" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="158" t="s">
+      <c r="H21" s="112" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="220"/>
-      <c r="B22" s="148"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="105"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="111"/>
       <c r="F22" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="155"/>
+      <c r="H22" s="113"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="220"/>
-      <c r="B23" s="148"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="105"/>
+      <c r="A23" s="99"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="111"/>
       <c r="F23" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="155"/>
+      <c r="H23" s="113"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="220"/>
-      <c r="B24" s="148"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="105"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="111"/>
       <c r="F24" s="4" t="s">
         <v>53</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H24" s="155"/>
+      <c r="H24" s="113"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="221"/>
-      <c r="B25" s="228"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="117"/>
+      <c r="A25" s="100"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="109"/>
       <c r="E25" s="83"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="178"/>
+      <c r="H25" s="114"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="225" t="s">
+      <c r="A26" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="111" t="s">
+      <c r="B26" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="100" t="s">
-        <v>259</v>
-      </c>
-      <c r="D26" s="115" t="s">
+      <c r="C26" s="133" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="134" t="s">
+      <c r="E26" s="110" t="s">
         <v>69</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -3376,76 +3376,76 @@
       <c r="G26" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="158" t="s">
+      <c r="H26" s="112" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="226"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="105"/>
+      <c r="A27" s="128"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="111"/>
       <c r="F27" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="155"/>
+      <c r="H27" s="113"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="226"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="105"/>
+      <c r="A28" s="128"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="111"/>
       <c r="F28" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="155"/>
+      <c r="H28" s="113"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="226"/>
-      <c r="B29" s="112"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="105"/>
+      <c r="A29" s="128"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="111"/>
       <c r="F29" s="4" t="s">
         <v>53</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="155"/>
+      <c r="H29" s="113"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="227"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="117"/>
+      <c r="A30" s="129"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="109"/>
       <c r="E30" s="83"/>
       <c r="F30" s="47"/>
       <c r="G30" s="47"/>
-      <c r="H30" s="178"/>
+      <c r="H30" s="114"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="216" t="s">
+      <c r="A31" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="111" t="s">
+      <c r="B31" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="100" t="s">
-        <v>259</v>
-      </c>
-      <c r="D31" s="115" t="s">
+      <c r="C31" s="133" t="s">
+        <v>258</v>
+      </c>
+      <c r="D31" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="134" t="s">
+      <c r="E31" s="110" t="s">
         <v>69</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -3454,76 +3454,76 @@
       <c r="G31" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="158" t="s">
+      <c r="H31" s="112" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="217"/>
-      <c r="B32" s="112"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="105"/>
+      <c r="A32" s="142"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="111"/>
       <c r="F32" s="4" t="s">
         <v>50</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H32" s="155"/>
+      <c r="H32" s="113"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="217"/>
-      <c r="B33" s="112"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="105"/>
+      <c r="A33" s="142"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="111"/>
       <c r="F33" s="4" t="s">
         <v>71</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H33" s="155"/>
+      <c r="H33" s="113"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="217"/>
-      <c r="B34" s="112"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="105"/>
+      <c r="A34" s="142"/>
+      <c r="B34" s="131"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="111"/>
       <c r="F34" s="4" t="s">
         <v>53</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="155"/>
+      <c r="H34" s="113"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="218"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="117"/>
+      <c r="A35" s="143"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="109"/>
       <c r="E35" s="83"/>
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
-      <c r="H35" s="178"/>
+      <c r="H35" s="114"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="213" t="s">
+      <c r="A36" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="111" t="s">
+      <c r="B36" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="100" t="s">
-        <v>258</v>
-      </c>
-      <c r="D36" s="115" t="s">
+      <c r="C36" s="133" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="134" t="s">
+      <c r="E36" s="110" t="s">
         <v>69</v>
       </c>
       <c r="F36" s="19" t="s">
@@ -3532,76 +3532,76 @@
       <c r="G36" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H36" s="158" t="s">
+      <c r="H36" s="112" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="214"/>
-      <c r="B37" s="112"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="105"/>
+      <c r="A37" s="139"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="111"/>
       <c r="F37" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H37" s="155"/>
+      <c r="H37" s="113"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="214"/>
-      <c r="B38" s="112"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="105"/>
+      <c r="A38" s="139"/>
+      <c r="B38" s="131"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="111"/>
       <c r="F38" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="155"/>
+      <c r="H38" s="113"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="214"/>
-      <c r="B39" s="112"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="105"/>
+      <c r="A39" s="139"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="111"/>
       <c r="F39" s="4" t="s">
         <v>53</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="155"/>
+      <c r="H39" s="113"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="215"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="117"/>
+      <c r="A40" s="140"/>
+      <c r="B40" s="132"/>
+      <c r="C40" s="135"/>
+      <c r="D40" s="109"/>
       <c r="E40" s="83"/>
       <c r="F40" s="47"/>
       <c r="G40" s="47"/>
-      <c r="H40" s="178"/>
+      <c r="H40" s="114"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="108" t="s">
+      <c r="A41" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="111" t="s">
+      <c r="B41" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="100" t="s">
-        <v>257</v>
-      </c>
-      <c r="D41" s="115" t="s">
+      <c r="C41" s="133" t="s">
+        <v>256</v>
+      </c>
+      <c r="D41" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="104" t="s">
+      <c r="E41" s="137" t="s">
         <v>76</v>
       </c>
       <c r="F41" s="9" t="s">
@@ -3610,127 +3610,127 @@
       <c r="G41" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H41" s="158" t="s">
+      <c r="H41" s="112" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="109"/>
-      <c r="B42" s="112"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="105"/>
+      <c r="A42" s="234"/>
+      <c r="B42" s="131"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="111"/>
       <c r="F42" s="4" t="s">
         <v>50</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H42" s="155"/>
+      <c r="H42" s="113"/>
     </row>
     <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="109"/>
-      <c r="B43" s="112"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="105"/>
+      <c r="A43" s="234"/>
+      <c r="B43" s="131"/>
+      <c r="C43" s="134"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="111"/>
       <c r="F43" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H43" s="155"/>
+      <c r="H43" s="113"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="109"/>
-      <c r="B44" s="112"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="105"/>
+      <c r="A44" s="234"/>
+      <c r="B44" s="131"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="111"/>
       <c r="F44" s="4" t="s">
         <v>53</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H44" s="155"/>
+      <c r="H44" s="113"/>
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="109"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="105"/>
+      <c r="A45" s="234"/>
+      <c r="B45" s="131"/>
+      <c r="C45" s="134"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="111"/>
       <c r="F45" s="4" t="s">
         <v>77</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H45" s="155"/>
+      <c r="H45" s="113"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="109"/>
-      <c r="B46" s="112"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="105"/>
+      <c r="A46" s="234"/>
+      <c r="B46" s="131"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="111"/>
       <c r="F46" s="4" t="s">
         <v>79</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H46" s="155"/>
+      <c r="H46" s="113"/>
     </row>
     <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="109"/>
-      <c r="B47" s="112"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="105"/>
+      <c r="A47" s="234"/>
+      <c r="B47" s="131"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="111"/>
       <c r="F47" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H47" s="155"/>
+      <c r="H47" s="113"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="109"/>
-      <c r="B48" s="112"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="105"/>
+      <c r="A48" s="234"/>
+      <c r="B48" s="131"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="111"/>
       <c r="F48" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G48" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H48" s="155"/>
+      <c r="H48" s="113"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="109"/>
-      <c r="B49" s="112"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="105"/>
+      <c r="A49" s="234"/>
+      <c r="B49" s="131"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="111"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="155"/>
+      <c r="H49" s="113"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="110"/>
-      <c r="B50" s="113"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="117"/>
+      <c r="A50" s="235"/>
+      <c r="B50" s="132"/>
+      <c r="C50" s="135"/>
+      <c r="D50" s="109"/>
       <c r="E50" s="83"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="178"/>
+      <c r="H50" s="114"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
@@ -3743,26 +3743,26 @@
       <c r="H51" s="14"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="90"/>
-      <c r="B52" s="91"/>
-      <c r="C52" s="91"/>
-      <c r="D52" s="91"/>
-      <c r="E52" s="91"/>
-      <c r="F52" s="91"/>
-      <c r="G52" s="91"/>
-      <c r="H52" s="92"/>
+      <c r="A52" s="189"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="92"/>
+      <c r="F52" s="92"/>
+      <c r="G52" s="92"/>
+      <c r="H52" s="93"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="93" t="s">
-        <v>263</v>
-      </c>
-      <c r="B53" s="94"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="95"/>
+      <c r="A53" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="B53" s="95"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="97"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
@@ -3775,106 +3775,106 @@
       <c r="H54" s="14"/>
     </row>
     <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="96" t="s">
+      <c r="A55" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="98" t="s">
-        <v>91</v>
-      </c>
-      <c r="C55" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="D55" s="102" t="s">
+      <c r="B55" s="154" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="133" t="s">
+        <v>254</v>
+      </c>
+      <c r="D55" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="104" t="s">
+      <c r="E55" s="137" t="s">
+        <v>309</v>
+      </c>
+      <c r="F55" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H55" s="160" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="153"/>
+      <c r="B56" s="156"/>
+      <c r="C56" s="134"/>
+      <c r="D56" s="159"/>
+      <c r="E56" s="111"/>
+      <c r="F56" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="F55" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="G55" s="9" t="s">
+      <c r="G56" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H55" s="106" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="97"/>
-      <c r="B56" s="99"/>
-      <c r="C56" s="101"/>
-      <c r="D56" s="103"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H56" s="107"/>
+      <c r="H56" s="161"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="97"/>
-      <c r="B57" s="99"/>
-      <c r="C57" s="101"/>
-      <c r="D57" s="103"/>
+      <c r="A57" s="153"/>
+      <c r="B57" s="156"/>
+      <c r="C57" s="134"/>
+      <c r="D57" s="159"/>
       <c r="E57" s="54"/>
       <c r="F57" s="59"/>
       <c r="G57" s="59"/>
-      <c r="H57" s="107"/>
+      <c r="H57" s="161"/>
     </row>
     <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="169" t="s">
+      <c r="A58" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="98" t="s">
-        <v>92</v>
-      </c>
-      <c r="C58" s="100" t="s">
-        <v>256</v>
-      </c>
-      <c r="D58" s="209" t="s">
+      <c r="B58" s="154" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="133" t="s">
+        <v>255</v>
+      </c>
+      <c r="D58" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="E58" s="104"/>
+      <c r="E58" s="137"/>
       <c r="F58" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H58" s="160" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="152"/>
+      <c r="B59" s="155"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="158"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G59" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H59" s="161"/>
+    </row>
+    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="153"/>
+      <c r="B60" s="156"/>
+      <c r="C60" s="134"/>
+      <c r="D60" s="159"/>
+      <c r="E60" s="111"/>
+      <c r="F60" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H58" s="106" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="146"/>
-      <c r="B59" s="208"/>
-      <c r="C59" s="101"/>
-      <c r="D59" s="210"/>
-      <c r="E59" s="104"/>
-      <c r="F59" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="G59" s="4" t="s">
+      <c r="G60" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H59" s="107"/>
-    </row>
-    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="97"/>
-      <c r="B60" s="99"/>
-      <c r="C60" s="101"/>
-      <c r="D60" s="103"/>
-      <c r="E60" s="105"/>
-      <c r="F60" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H60" s="107"/>
+      <c r="H60" s="161"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
@@ -3887,26 +3887,26 @@
       <c r="H61" s="25"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="194"/>
-      <c r="B62" s="195"/>
-      <c r="C62" s="195"/>
-      <c r="D62" s="195"/>
-      <c r="E62" s="196"/>
-      <c r="F62" s="195"/>
-      <c r="G62" s="195"/>
-      <c r="H62" s="197"/>
+      <c r="A62" s="169"/>
+      <c r="B62" s="170"/>
+      <c r="C62" s="170"/>
+      <c r="D62" s="170"/>
+      <c r="E62" s="171"/>
+      <c r="F62" s="170"/>
+      <c r="G62" s="170"/>
+      <c r="H62" s="172"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="198" t="s">
-        <v>100</v>
-      </c>
-      <c r="B63" s="199"/>
-      <c r="C63" s="199"/>
-      <c r="D63" s="199"/>
-      <c r="E63" s="199"/>
-      <c r="F63" s="199"/>
-      <c r="G63" s="199"/>
-      <c r="H63" s="199"/>
+      <c r="A63" s="144" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="173"/>
+      <c r="C63" s="173"/>
+      <c r="D63" s="173"/>
+      <c r="E63" s="173"/>
+      <c r="F63" s="173"/>
+      <c r="G63" s="173"/>
+      <c r="H63" s="173"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="36"/>
@@ -3919,1808 +3919,1808 @@
       <c r="H64" s="37"/>
     </row>
     <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="146" t="s">
+      <c r="A65" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="167" t="s">
+      <c r="B65" s="231" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="221" t="s">
+        <v>163</v>
+      </c>
+      <c r="D65" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="163" t="s">
+        <v>309</v>
+      </c>
+      <c r="F65" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H65" s="113" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="152"/>
+      <c r="B66" s="231"/>
+      <c r="C66" s="221"/>
+      <c r="D66" s="162"/>
+      <c r="E66" s="164"/>
+      <c r="F66" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H66" s="113"/>
+    </row>
+    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="152"/>
+      <c r="B67" s="231"/>
+      <c r="C67" s="221"/>
+      <c r="D67" s="162"/>
+      <c r="E67" s="164"/>
+      <c r="F67" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H67" s="113"/>
+    </row>
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="152"/>
+      <c r="B68" s="176"/>
+      <c r="C68" s="105"/>
+      <c r="D68" s="123"/>
+      <c r="E68" s="164"/>
+      <c r="F68" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="G68" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H68" s="125"/>
+    </row>
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="152"/>
+      <c r="B69" s="176"/>
+      <c r="C69" s="105"/>
+      <c r="D69" s="123"/>
+      <c r="E69" s="164"/>
+      <c r="F69" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H69" s="125"/>
+    </row>
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="152"/>
+      <c r="B70" s="176"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="123"/>
+      <c r="E70" s="164"/>
+      <c r="F70" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="G70" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="H70" s="125"/>
+    </row>
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="152"/>
+      <c r="B71" s="176"/>
+      <c r="C71" s="105"/>
+      <c r="D71" s="123"/>
+      <c r="E71" s="164"/>
+      <c r="F71" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H71" s="125"/>
+    </row>
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="152"/>
+      <c r="B72" s="176"/>
+      <c r="C72" s="105"/>
+      <c r="D72" s="123"/>
+      <c r="E72" s="164"/>
+      <c r="F72" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H72" s="125"/>
+    </row>
+    <row r="73" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+      <c r="A73" s="152"/>
+      <c r="B73" s="176"/>
+      <c r="C73" s="105"/>
+      <c r="D73" s="123"/>
+      <c r="E73" s="164"/>
+      <c r="F73" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="G73" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="H73" s="125"/>
+    </row>
+    <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="152"/>
+      <c r="B74" s="176"/>
+      <c r="C74" s="105"/>
+      <c r="D74" s="123"/>
+      <c r="E74" s="164"/>
+      <c r="F74" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="H74" s="125"/>
+    </row>
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="152"/>
+      <c r="B75" s="176"/>
+      <c r="C75" s="105"/>
+      <c r="D75" s="123"/>
+      <c r="E75" s="165"/>
+      <c r="F75" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="G75" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C65" s="149" t="s">
-        <v>164</v>
-      </c>
-      <c r="D65" s="211" t="s">
-        <v>1</v>
-      </c>
-      <c r="E65" s="212" t="s">
-        <v>86</v>
-      </c>
-      <c r="F65" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H65" s="155" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="146"/>
-      <c r="B66" s="167"/>
-      <c r="C66" s="149"/>
-      <c r="D66" s="211"/>
-      <c r="E66" s="206"/>
-      <c r="F66" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H66" s="155"/>
-    </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="146"/>
-      <c r="B67" s="167"/>
-      <c r="C67" s="149"/>
-      <c r="D67" s="211"/>
-      <c r="E67" s="206"/>
-      <c r="F67" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H67" s="155"/>
-    </row>
-    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="146"/>
-      <c r="B68" s="168"/>
-      <c r="C68" s="150"/>
-      <c r="D68" s="187"/>
-      <c r="E68" s="206"/>
-      <c r="F68" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="G68" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="H68" s="156"/>
-    </row>
-    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="146"/>
-      <c r="B69" s="168"/>
-      <c r="C69" s="150"/>
-      <c r="D69" s="187"/>
-      <c r="E69" s="206"/>
-      <c r="F69" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="G69" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="H69" s="156"/>
-    </row>
-    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="146"/>
-      <c r="B70" s="168"/>
-      <c r="C70" s="150"/>
-      <c r="D70" s="187"/>
-      <c r="E70" s="206"/>
-      <c r="F70" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="G70" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="H70" s="156"/>
-    </row>
-    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="146"/>
-      <c r="B71" s="168"/>
-      <c r="C71" s="150"/>
-      <c r="D71" s="187"/>
-      <c r="E71" s="206"/>
-      <c r="F71" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="G71" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H71" s="156"/>
-    </row>
-    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="146"/>
-      <c r="B72" s="168"/>
-      <c r="C72" s="150"/>
-      <c r="D72" s="187"/>
-      <c r="E72" s="206"/>
-      <c r="F72" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="G72" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H72" s="156"/>
-    </row>
-    <row r="73" spans="1:8" ht="255" x14ac:dyDescent="0.25">
-      <c r="A73" s="146"/>
-      <c r="B73" s="168"/>
-      <c r="C73" s="150"/>
-      <c r="D73" s="187"/>
-      <c r="E73" s="206"/>
-      <c r="F73" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="G73" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="H73" s="156"/>
-    </row>
-    <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="146"/>
-      <c r="B74" s="168"/>
-      <c r="C74" s="150"/>
-      <c r="D74" s="187"/>
-      <c r="E74" s="206"/>
-      <c r="F74" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="G74" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="H74" s="156"/>
-    </row>
-    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="146"/>
-      <c r="B75" s="168"/>
-      <c r="C75" s="150"/>
-      <c r="D75" s="187"/>
-      <c r="E75" s="207"/>
-      <c r="F75" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="G75" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="H75" s="156"/>
+      <c r="H75" s="125"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="146"/>
-      <c r="B76" s="168"/>
-      <c r="C76" s="150"/>
-      <c r="D76" s="187"/>
+      <c r="A76" s="152"/>
+      <c r="B76" s="176"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="123"/>
       <c r="E76" s="84"/>
       <c r="F76" s="65"/>
       <c r="G76" s="35"/>
-      <c r="H76" s="179"/>
+      <c r="H76" s="126"/>
     </row>
     <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="198" t="s">
+      <c r="A77" s="144" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="145" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" s="147" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" s="149" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" s="164"/>
+      <c r="F77" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B77" s="200" t="s">
+      <c r="G77" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H77" s="113" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="144"/>
+      <c r="B78" s="146"/>
+      <c r="C78" s="148"/>
+      <c r="D78" s="150"/>
+      <c r="E78" s="164"/>
+      <c r="F78" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="G78" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H78" s="125"/>
+    </row>
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="144"/>
+      <c r="B79" s="146"/>
+      <c r="C79" s="148"/>
+      <c r="D79" s="150"/>
+      <c r="E79" s="164"/>
+      <c r="F79" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="H79" s="125"/>
+    </row>
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="144"/>
+      <c r="B80" s="146"/>
+      <c r="C80" s="148"/>
+      <c r="D80" s="150"/>
+      <c r="E80" s="164"/>
+      <c r="F80" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="G80" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="H80" s="125"/>
+    </row>
+    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="144"/>
+      <c r="B81" s="146"/>
+      <c r="C81" s="148"/>
+      <c r="D81" s="150"/>
+      <c r="E81" s="164"/>
+      <c r="F81" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H81" s="125"/>
+    </row>
+    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="144"/>
+      <c r="B82" s="146"/>
+      <c r="C82" s="148"/>
+      <c r="D82" s="150"/>
+      <c r="E82" s="164"/>
+      <c r="F82" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H82" s="125"/>
+    </row>
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="144"/>
+      <c r="B83" s="146"/>
+      <c r="C83" s="148"/>
+      <c r="D83" s="150"/>
+      <c r="E83" s="164"/>
+      <c r="F83" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="G83" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="C77" s="202" t="s">
-        <v>163</v>
-      </c>
-      <c r="D77" s="204" t="s">
-        <v>1</v>
-      </c>
-      <c r="E77" s="206"/>
-      <c r="F77" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H77" s="155" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="198"/>
-      <c r="B78" s="201"/>
-      <c r="C78" s="203"/>
-      <c r="D78" s="205"/>
-      <c r="E78" s="206"/>
-      <c r="F78" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="G78" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="H78" s="156"/>
-    </row>
-    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="198"/>
-      <c r="B79" s="201"/>
-      <c r="C79" s="203"/>
-      <c r="D79" s="205"/>
-      <c r="E79" s="206"/>
-      <c r="F79" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="G79" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="H79" s="156"/>
-    </row>
-    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="198"/>
-      <c r="B80" s="201"/>
-      <c r="C80" s="203"/>
-      <c r="D80" s="205"/>
-      <c r="E80" s="206"/>
-      <c r="F80" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="G80" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="H80" s="156"/>
-    </row>
-    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="198"/>
-      <c r="B81" s="201"/>
-      <c r="C81" s="203"/>
-      <c r="D81" s="205"/>
-      <c r="E81" s="206"/>
-      <c r="F81" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="G81" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="H81" s="156"/>
-    </row>
-    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="198"/>
-      <c r="B82" s="201"/>
-      <c r="C82" s="203"/>
-      <c r="D82" s="205"/>
-      <c r="E82" s="206"/>
-      <c r="F82" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="G82" s="17" t="s">
+      <c r="H83" s="125"/>
+    </row>
+    <row r="84" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="144"/>
+      <c r="B84" s="146"/>
+      <c r="C84" s="148"/>
+      <c r="D84" s="150"/>
+      <c r="E84" s="164"/>
+      <c r="F84" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="G84" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="H82" s="156"/>
-    </row>
-    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="198"/>
-      <c r="B83" s="201"/>
-      <c r="C83" s="203"/>
-      <c r="D83" s="205"/>
-      <c r="E83" s="206"/>
-      <c r="F83" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="G83" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="H83" s="156"/>
-    </row>
-    <row r="84" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="198"/>
-      <c r="B84" s="201"/>
-      <c r="C84" s="203"/>
-      <c r="D84" s="205"/>
-      <c r="E84" s="206"/>
-      <c r="F84" s="62" t="s">
+      <c r="H84" s="125"/>
+    </row>
+    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="144"/>
+      <c r="B85" s="146"/>
+      <c r="C85" s="148"/>
+      <c r="D85" s="150"/>
+      <c r="E85" s="165"/>
+      <c r="F85" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="G84" s="17" t="s">
+      <c r="G85" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="H84" s="156"/>
-    </row>
-    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="198"/>
-      <c r="B85" s="201"/>
-      <c r="C85" s="203"/>
-      <c r="D85" s="205"/>
-      <c r="E85" s="207"/>
-      <c r="F85" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="G85" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="H85" s="156"/>
+      <c r="H85" s="125"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="198"/>
-      <c r="B86" s="201"/>
-      <c r="C86" s="203"/>
-      <c r="D86" s="205"/>
+      <c r="A86" s="144"/>
+      <c r="B86" s="146"/>
+      <c r="C86" s="148"/>
+      <c r="D86" s="150"/>
       <c r="E86" s="85"/>
       <c r="F86" s="66"/>
       <c r="G86" s="35"/>
-      <c r="H86" s="179"/>
+      <c r="H86" s="126"/>
     </row>
     <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="198" t="s">
+      <c r="A87" s="144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87" s="145" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87" s="147" t="s">
+        <v>160</v>
+      </c>
+      <c r="D87" s="149" t="s">
+        <v>1</v>
+      </c>
+      <c r="E87" s="110" t="s">
+        <v>309</v>
+      </c>
+      <c r="F87" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H87" s="113" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="144"/>
+      <c r="B88" s="146"/>
+      <c r="C88" s="148"/>
+      <c r="D88" s="150"/>
+      <c r="E88" s="110"/>
+      <c r="F88" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="G88" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H88" s="125"/>
+    </row>
+    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="144"/>
+      <c r="B89" s="146"/>
+      <c r="C89" s="148"/>
+      <c r="D89" s="150"/>
+      <c r="E89" s="110"/>
+      <c r="F89" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="B87" s="200" t="s">
-        <v>123</v>
-      </c>
-      <c r="C87" s="202" t="s">
-        <v>161</v>
-      </c>
-      <c r="D87" s="204" t="s">
-        <v>1</v>
-      </c>
-      <c r="E87" s="134" t="s">
-        <v>86</v>
-      </c>
-      <c r="F87" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H87" s="155" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="198"/>
-      <c r="B88" s="201"/>
-      <c r="C88" s="203"/>
-      <c r="D88" s="205"/>
-      <c r="E88" s="134"/>
-      <c r="F88" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="G88" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="H88" s="156"/>
-    </row>
-    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="198"/>
-      <c r="B89" s="201"/>
-      <c r="C89" s="203"/>
-      <c r="D89" s="205"/>
-      <c r="E89" s="134"/>
-      <c r="F89" s="64" t="s">
+      <c r="G89" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="G89" s="17" t="s">
+      <c r="H89" s="125"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="144"/>
+      <c r="B90" s="146"/>
+      <c r="C90" s="148"/>
+      <c r="D90" s="150"/>
+      <c r="E90" s="110"/>
+      <c r="F90" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="H89" s="156"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="198"/>
-      <c r="B90" s="201"/>
-      <c r="C90" s="203"/>
-      <c r="D90" s="205"/>
-      <c r="E90" s="134"/>
-      <c r="F90" s="64" t="s">
+      <c r="G90" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="G90" s="64" t="s">
+      <c r="H90" s="125"/>
+    </row>
+    <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="144"/>
+      <c r="B91" s="146"/>
+      <c r="C91" s="148"/>
+      <c r="D91" s="150"/>
+      <c r="E91" s="110"/>
+      <c r="F91" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="H90" s="156"/>
-    </row>
-    <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="198"/>
-      <c r="B91" s="201"/>
-      <c r="C91" s="203"/>
-      <c r="D91" s="205"/>
-      <c r="E91" s="134"/>
-      <c r="F91" s="62" t="s">
+      <c r="G91" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H91" s="125"/>
+    </row>
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="144"/>
+      <c r="B92" s="146"/>
+      <c r="C92" s="148"/>
+      <c r="D92" s="150"/>
+      <c r="E92" s="110"/>
+      <c r="F92" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="G91" s="17" t="s">
+      <c r="G92" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="H91" s="156"/>
-    </row>
-    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="198"/>
-      <c r="B92" s="201"/>
-      <c r="C92" s="203"/>
-      <c r="D92" s="205"/>
-      <c r="E92" s="134"/>
-      <c r="F92" s="62" t="s">
+      <c r="H92" s="125"/>
+    </row>
+    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="144"/>
+      <c r="B93" s="146"/>
+      <c r="C93" s="148"/>
+      <c r="D93" s="150"/>
+      <c r="E93" s="110"/>
+      <c r="F93" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="G92" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="H92" s="156"/>
-    </row>
-    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="198"/>
-      <c r="B93" s="201"/>
-      <c r="C93" s="203"/>
-      <c r="D93" s="205"/>
-      <c r="E93" s="134"/>
-      <c r="F93" s="64" t="s">
+      <c r="G93" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="G93" s="61" t="s">
+      <c r="H93" s="125"/>
+    </row>
+    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="144"/>
+      <c r="B94" s="146"/>
+      <c r="C94" s="148"/>
+      <c r="D94" s="150"/>
+      <c r="E94" s="110"/>
+      <c r="F94" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="G94" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="H93" s="156"/>
-    </row>
-    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="198"/>
-      <c r="B94" s="201"/>
-      <c r="C94" s="203"/>
-      <c r="D94" s="205"/>
-      <c r="E94" s="134"/>
-      <c r="F94" s="62" t="s">
+      <c r="H94" s="125"/>
+    </row>
+    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="144"/>
+      <c r="B95" s="146"/>
+      <c r="C95" s="148"/>
+      <c r="D95" s="150"/>
+      <c r="E95" s="110"/>
+      <c r="F95" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="G94" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="H94" s="156"/>
-    </row>
-    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="198"/>
-      <c r="B95" s="201"/>
-      <c r="C95" s="203"/>
-      <c r="D95" s="205"/>
-      <c r="E95" s="134"/>
-      <c r="F95" s="62" t="s">
-        <v>134</v>
-      </c>
       <c r="G95" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="H95" s="156"/>
+        <v>140</v>
+      </c>
+      <c r="H95" s="125"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="198"/>
-      <c r="B96" s="201"/>
-      <c r="C96" s="203"/>
-      <c r="D96" s="205"/>
+      <c r="A96" s="144"/>
+      <c r="B96" s="146"/>
+      <c r="C96" s="148"/>
+      <c r="D96" s="150"/>
       <c r="E96" s="85"/>
       <c r="F96" s="66"/>
       <c r="G96" s="35"/>
-      <c r="H96" s="179"/>
+      <c r="H96" s="126"/>
     </row>
     <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="198" t="s">
+      <c r="A97" s="144" t="s">
+        <v>153</v>
+      </c>
+      <c r="B97" s="145" t="s">
         <v>154</v>
       </c>
-      <c r="B97" s="200" t="s">
+      <c r="C97" s="147" t="s">
+        <v>161</v>
+      </c>
+      <c r="D97" s="149" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" s="110" t="s">
+        <v>309</v>
+      </c>
+      <c r="F97" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H97" s="113" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="144"/>
+      <c r="B98" s="146"/>
+      <c r="C98" s="148"/>
+      <c r="D98" s="150"/>
+      <c r="E98" s="110"/>
+      <c r="F98" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="G98" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H98" s="125"/>
+    </row>
+    <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="144"/>
+      <c r="B99" s="146"/>
+      <c r="C99" s="148"/>
+      <c r="D99" s="150"/>
+      <c r="E99" s="110"/>
+      <c r="F99" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="C97" s="202" t="s">
-        <v>162</v>
-      </c>
-      <c r="D97" s="204" t="s">
-        <v>1</v>
-      </c>
-      <c r="E97" s="134" t="s">
-        <v>86</v>
-      </c>
-      <c r="F97" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H97" s="155" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="198"/>
-      <c r="B98" s="201"/>
-      <c r="C98" s="203"/>
-      <c r="D98" s="205"/>
-      <c r="E98" s="134"/>
-      <c r="F98" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="G98" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="H98" s="156"/>
-    </row>
-    <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="198"/>
-      <c r="B99" s="201"/>
-      <c r="C99" s="203"/>
-      <c r="D99" s="205"/>
-      <c r="E99" s="134"/>
-      <c r="F99" s="64" t="s">
+      <c r="G99" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="G99" s="17" t="s">
+      <c r="H99" s="125"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="144"/>
+      <c r="B100" s="146"/>
+      <c r="C100" s="148"/>
+      <c r="D100" s="150"/>
+      <c r="E100" s="110"/>
+      <c r="F100" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="H99" s="156"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="198"/>
-      <c r="B100" s="201"/>
-      <c r="C100" s="203"/>
-      <c r="D100" s="205"/>
-      <c r="E100" s="134"/>
-      <c r="F100" s="64" t="s">
+      <c r="G100" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="G100" s="64" t="s">
+      <c r="H100" s="125"/>
+    </row>
+    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="144"/>
+      <c r="B101" s="146"/>
+      <c r="C101" s="148"/>
+      <c r="D101" s="150"/>
+      <c r="E101" s="110"/>
+      <c r="F101" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="G101" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H101" s="125"/>
+    </row>
+    <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="144"/>
+      <c r="B102" s="146"/>
+      <c r="C102" s="148"/>
+      <c r="D102" s="150"/>
+      <c r="E102" s="110"/>
+      <c r="F102" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="H100" s="156"/>
-    </row>
-    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="198"/>
-      <c r="B101" s="201"/>
-      <c r="C101" s="203"/>
-      <c r="D101" s="205"/>
-      <c r="E101" s="134"/>
-      <c r="F101" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="G101" s="17" t="s">
+      <c r="G102" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="H101" s="156"/>
-    </row>
-    <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="198"/>
-      <c r="B102" s="201"/>
-      <c r="C102" s="203"/>
-      <c r="D102" s="205"/>
-      <c r="E102" s="134"/>
-      <c r="F102" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="G102" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="H102" s="156"/>
+      <c r="H102" s="125"/>
     </row>
     <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="198"/>
-      <c r="B103" s="201"/>
-      <c r="C103" s="203"/>
-      <c r="D103" s="205"/>
-      <c r="E103" s="134"/>
+      <c r="A103" s="144"/>
+      <c r="B103" s="146"/>
+      <c r="C103" s="148"/>
+      <c r="D103" s="150"/>
+      <c r="E103" s="110"/>
       <c r="F103" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="G103" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="G103" s="61" t="s">
+      <c r="H103" s="125"/>
+    </row>
+    <row r="104" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="144"/>
+      <c r="B104" s="146"/>
+      <c r="C104" s="148"/>
+      <c r="D104" s="150"/>
+      <c r="E104" s="110"/>
+      <c r="F104" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="G104" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="H103" s="156"/>
-    </row>
-    <row r="104" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="198"/>
-      <c r="B104" s="201"/>
-      <c r="C104" s="203"/>
-      <c r="D104" s="205"/>
-      <c r="E104" s="134"/>
-      <c r="F104" s="62" t="s">
+      <c r="H104" s="125"/>
+    </row>
+    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="144"/>
+      <c r="B105" s="146"/>
+      <c r="C105" s="148"/>
+      <c r="D105" s="150"/>
+      <c r="E105" s="110"/>
+      <c r="F105" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="G104" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="H104" s="156"/>
-    </row>
-    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="198"/>
-      <c r="B105" s="201"/>
-      <c r="C105" s="203"/>
-      <c r="D105" s="205"/>
-      <c r="E105" s="134"/>
-      <c r="F105" s="62" t="s">
-        <v>134</v>
-      </c>
       <c r="G105" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="H105" s="156"/>
+        <v>140</v>
+      </c>
+      <c r="H105" s="125"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="198"/>
-      <c r="B106" s="201"/>
-      <c r="C106" s="203"/>
-      <c r="D106" s="205"/>
+      <c r="A106" s="144"/>
+      <c r="B106" s="146"/>
+      <c r="C106" s="148"/>
+      <c r="D106" s="150"/>
       <c r="E106" s="85"/>
       <c r="F106" s="66"/>
       <c r="G106" s="35"/>
-      <c r="H106" s="179"/>
+      <c r="H106" s="126"/>
     </row>
     <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="198" t="s">
+      <c r="A107" s="144" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="145" t="s">
+        <v>173</v>
+      </c>
+      <c r="C107" s="147" t="s">
+        <v>172</v>
+      </c>
+      <c r="D107" s="149" t="s">
+        <v>1</v>
+      </c>
+      <c r="E107" s="110" t="s">
+        <v>309</v>
+      </c>
+      <c r="F107" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H107" s="113" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="144"/>
+      <c r="B108" s="146"/>
+      <c r="C108" s="148"/>
+      <c r="D108" s="150"/>
+      <c r="E108" s="110"/>
+      <c r="F108" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="G108" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H108" s="125"/>
+    </row>
+    <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="144"/>
+      <c r="B109" s="146"/>
+      <c r="C109" s="148"/>
+      <c r="D109" s="150"/>
+      <c r="E109" s="110"/>
+      <c r="F109" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="B107" s="200" t="s">
-        <v>174</v>
-      </c>
-      <c r="C107" s="202" t="s">
-        <v>173</v>
-      </c>
-      <c r="D107" s="204" t="s">
-        <v>1</v>
-      </c>
-      <c r="E107" s="134" t="s">
-        <v>86</v>
-      </c>
-      <c r="F107" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H107" s="155" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="198"/>
-      <c r="B108" s="201"/>
-      <c r="C108" s="203"/>
-      <c r="D108" s="205"/>
-      <c r="E108" s="134"/>
-      <c r="F108" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="G108" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="H108" s="156"/>
-    </row>
-    <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="198"/>
-      <c r="B109" s="201"/>
-      <c r="C109" s="203"/>
-      <c r="D109" s="205"/>
-      <c r="E109" s="134"/>
-      <c r="F109" s="64" t="s">
+      <c r="G109" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="G109" s="17" t="s">
+      <c r="H109" s="125"/>
+    </row>
+    <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="144"/>
+      <c r="B110" s="146"/>
+      <c r="C110" s="148"/>
+      <c r="D110" s="150"/>
+      <c r="E110" s="110"/>
+      <c r="F110" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="H109" s="156"/>
-    </row>
-    <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="198"/>
-      <c r="B110" s="201"/>
-      <c r="C110" s="203"/>
-      <c r="D110" s="205"/>
-      <c r="E110" s="134"/>
-      <c r="F110" s="64" t="s">
+      <c r="G110" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="G110" s="64" t="s">
+      <c r="H110" s="125"/>
+    </row>
+    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="144"/>
+      <c r="B111" s="146"/>
+      <c r="C111" s="148"/>
+      <c r="D111" s="150"/>
+      <c r="E111" s="110"/>
+      <c r="F111" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="G111" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H111" s="125"/>
+    </row>
+    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="144"/>
+      <c r="B112" s="146"/>
+      <c r="C112" s="148"/>
+      <c r="D112" s="150"/>
+      <c r="E112" s="110"/>
+      <c r="F112" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="G112" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H112" s="125"/>
+    </row>
+    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="144"/>
+      <c r="B113" s="146"/>
+      <c r="C113" s="148"/>
+      <c r="D113" s="150"/>
+      <c r="E113" s="110"/>
+      <c r="F113" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="H110" s="156"/>
-    </row>
-    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="198"/>
-      <c r="B111" s="201"/>
-      <c r="C111" s="203"/>
-      <c r="D111" s="205"/>
-      <c r="E111" s="134"/>
-      <c r="F111" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="G111" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="H111" s="156"/>
-    </row>
-    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="198"/>
-      <c r="B112" s="201"/>
-      <c r="C112" s="203"/>
-      <c r="D112" s="205"/>
-      <c r="E112" s="134"/>
-      <c r="F112" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="G112" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="H112" s="156"/>
-    </row>
-    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="198"/>
-      <c r="B113" s="201"/>
-      <c r="C113" s="203"/>
-      <c r="D113" s="205"/>
-      <c r="E113" s="134"/>
-      <c r="F113" s="64" t="s">
+      <c r="G113" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="G113" s="61" t="s">
+      <c r="H113" s="125"/>
+    </row>
+    <row r="114" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A114" s="144"/>
+      <c r="B114" s="146"/>
+      <c r="C114" s="148"/>
+      <c r="D114" s="150"/>
+      <c r="E114" s="110"/>
+      <c r="F114" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="G114" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="H113" s="156"/>
-    </row>
-    <row r="114" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A114" s="198"/>
-      <c r="B114" s="201"/>
-      <c r="C114" s="203"/>
-      <c r="D114" s="205"/>
-      <c r="E114" s="134"/>
-      <c r="F114" s="62" t="s">
+      <c r="H114" s="125"/>
+    </row>
+    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="144"/>
+      <c r="B115" s="146"/>
+      <c r="C115" s="148"/>
+      <c r="D115" s="150"/>
+      <c r="E115" s="110"/>
+      <c r="F115" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="G114" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="H114" s="156"/>
-    </row>
-    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="198"/>
-      <c r="B115" s="201"/>
-      <c r="C115" s="203"/>
-      <c r="D115" s="205"/>
-      <c r="E115" s="134"/>
-      <c r="F115" s="62" t="s">
-        <v>134</v>
-      </c>
       <c r="G115" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="H115" s="156"/>
+        <v>140</v>
+      </c>
+      <c r="H115" s="125"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="198"/>
-      <c r="B116" s="201"/>
-      <c r="C116" s="203"/>
-      <c r="D116" s="205"/>
+      <c r="A116" s="144"/>
+      <c r="B116" s="146"/>
+      <c r="C116" s="148"/>
+      <c r="D116" s="150"/>
       <c r="E116" s="85"/>
       <c r="F116" s="66"/>
       <c r="G116" s="35"/>
-      <c r="H116" s="179"/>
+      <c r="H116" s="126"/>
     </row>
     <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="198" t="s">
+      <c r="A117" s="144" t="s">
+        <v>174</v>
+      </c>
+      <c r="B117" s="145" t="s">
         <v>175</v>
       </c>
-      <c r="B117" s="200" t="s">
+      <c r="C117" s="147" t="s">
+        <v>184</v>
+      </c>
+      <c r="D117" s="149" t="s">
+        <v>1</v>
+      </c>
+      <c r="E117" s="110" t="s">
+        <v>309</v>
+      </c>
+      <c r="F117" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H117" s="113" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="144"/>
+      <c r="B118" s="146"/>
+      <c r="C118" s="148"/>
+      <c r="D118" s="150"/>
+      <c r="E118" s="110"/>
+      <c r="F118" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="G118" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H118" s="125"/>
+    </row>
+    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="144"/>
+      <c r="B119" s="146"/>
+      <c r="C119" s="148"/>
+      <c r="D119" s="150"/>
+      <c r="E119" s="110"/>
+      <c r="F119" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="C117" s="202" t="s">
-        <v>185</v>
-      </c>
-      <c r="D117" s="204" t="s">
-        <v>1</v>
-      </c>
-      <c r="E117" s="134" t="s">
-        <v>86</v>
-      </c>
-      <c r="F117" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H117" s="155" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="198"/>
-      <c r="B118" s="201"/>
-      <c r="C118" s="203"/>
-      <c r="D118" s="205"/>
-      <c r="E118" s="134"/>
-      <c r="F118" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="G118" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="H118" s="156"/>
-    </row>
-    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="198"/>
-      <c r="B119" s="201"/>
-      <c r="C119" s="203"/>
-      <c r="D119" s="205"/>
-      <c r="E119" s="134"/>
-      <c r="F119" s="64" t="s">
+      <c r="G119" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="G119" s="17" t="s">
+      <c r="H119" s="125"/>
+    </row>
+    <row r="120" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A120" s="144"/>
+      <c r="B120" s="146"/>
+      <c r="C120" s="148"/>
+      <c r="D120" s="150"/>
+      <c r="E120" s="110"/>
+      <c r="F120" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="H119" s="156"/>
-    </row>
-    <row r="120" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A120" s="198"/>
-      <c r="B120" s="201"/>
-      <c r="C120" s="203"/>
-      <c r="D120" s="205"/>
-      <c r="E120" s="134"/>
-      <c r="F120" s="64" t="s">
+      <c r="G120" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="G120" s="64" t="s">
+      <c r="H120" s="125"/>
+    </row>
+    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="144"/>
+      <c r="B121" s="146"/>
+      <c r="C121" s="148"/>
+      <c r="D121" s="150"/>
+      <c r="E121" s="110"/>
+      <c r="F121" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="G121" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H121" s="125"/>
+    </row>
+    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="144"/>
+      <c r="B122" s="146"/>
+      <c r="C122" s="148"/>
+      <c r="D122" s="150"/>
+      <c r="E122" s="110"/>
+      <c r="F122" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="H120" s="156"/>
-    </row>
-    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="198"/>
-      <c r="B121" s="201"/>
-      <c r="C121" s="203"/>
-      <c r="D121" s="205"/>
-      <c r="E121" s="134"/>
-      <c r="F121" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="G121" s="17" t="s">
+      <c r="G122" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="H121" s="156"/>
-    </row>
-    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="198"/>
-      <c r="B122" s="201"/>
-      <c r="C122" s="203"/>
-      <c r="D122" s="205"/>
-      <c r="E122" s="134"/>
-      <c r="F122" s="62" t="s">
+      <c r="H122" s="125"/>
+    </row>
+    <row r="123" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A123" s="144"/>
+      <c r="B123" s="146"/>
+      <c r="C123" s="148"/>
+      <c r="D123" s="150"/>
+      <c r="E123" s="110"/>
+      <c r="F123" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="G122" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="H122" s="156"/>
-    </row>
-    <row r="123" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A123" s="198"/>
-      <c r="B123" s="201"/>
-      <c r="C123" s="203"/>
-      <c r="D123" s="205"/>
-      <c r="E123" s="134"/>
-      <c r="F123" s="64" t="s">
+      <c r="G123" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="G123" s="61" t="s">
+      <c r="H123" s="125"/>
+    </row>
+    <row r="124" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A124" s="144"/>
+      <c r="B124" s="146"/>
+      <c r="C124" s="148"/>
+      <c r="D124" s="150"/>
+      <c r="E124" s="110"/>
+      <c r="F124" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="G124" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="H123" s="156"/>
-    </row>
-    <row r="124" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A124" s="198"/>
-      <c r="B124" s="201"/>
-      <c r="C124" s="203"/>
-      <c r="D124" s="205"/>
-      <c r="E124" s="134"/>
-      <c r="F124" s="62" t="s">
+      <c r="H124" s="125"/>
+    </row>
+    <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="144"/>
+      <c r="B125" s="146"/>
+      <c r="C125" s="148"/>
+      <c r="D125" s="150"/>
+      <c r="E125" s="110"/>
+      <c r="F125" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="G124" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="H124" s="156"/>
-    </row>
-    <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="198"/>
-      <c r="B125" s="201"/>
-      <c r="C125" s="203"/>
-      <c r="D125" s="205"/>
-      <c r="E125" s="134"/>
-      <c r="F125" s="62" t="s">
-        <v>134</v>
-      </c>
       <c r="G125" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="H125" s="156"/>
+        <v>140</v>
+      </c>
+      <c r="H125" s="125"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="198"/>
-      <c r="B126" s="201"/>
-      <c r="C126" s="203"/>
-      <c r="D126" s="205"/>
+      <c r="A126" s="144"/>
+      <c r="B126" s="146"/>
+      <c r="C126" s="148"/>
+      <c r="D126" s="150"/>
       <c r="E126" s="85"/>
       <c r="F126" s="66"/>
       <c r="G126" s="35"/>
-      <c r="H126" s="179"/>
+      <c r="H126" s="126"/>
     </row>
     <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="198" t="s">
+      <c r="A127" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="B127" s="145" t="s">
         <v>186</v>
       </c>
-      <c r="B127" s="200" t="s">
+      <c r="C127" s="147" t="s">
+        <v>194</v>
+      </c>
+      <c r="D127" s="149" t="s">
+        <v>1</v>
+      </c>
+      <c r="E127" s="110" t="s">
+        <v>309</v>
+      </c>
+      <c r="F127" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H127" s="113" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="144"/>
+      <c r="B128" s="146"/>
+      <c r="C128" s="148"/>
+      <c r="D128" s="150"/>
+      <c r="E128" s="110"/>
+      <c r="F128" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="G128" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H128" s="125"/>
+    </row>
+    <row r="129" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="144"/>
+      <c r="B129" s="146"/>
+      <c r="C129" s="148"/>
+      <c r="D129" s="150"/>
+      <c r="E129" s="110"/>
+      <c r="F129" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="C127" s="202" t="s">
-        <v>195</v>
-      </c>
-      <c r="D127" s="204" t="s">
-        <v>1</v>
-      </c>
-      <c r="E127" s="134" t="s">
-        <v>86</v>
-      </c>
-      <c r="F127" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H127" s="155" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="198"/>
-      <c r="B128" s="201"/>
-      <c r="C128" s="203"/>
-      <c r="D128" s="205"/>
-      <c r="E128" s="134"/>
-      <c r="F128" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="G128" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="H128" s="156"/>
-    </row>
-    <row r="129" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="198"/>
-      <c r="B129" s="201"/>
-      <c r="C129" s="203"/>
-      <c r="D129" s="205"/>
-      <c r="E129" s="134"/>
-      <c r="F129" s="64" t="s">
+      <c r="G129" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="G129" s="17" t="s">
+      <c r="H129" s="125"/>
+    </row>
+    <row r="130" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="144"/>
+      <c r="B130" s="146"/>
+      <c r="C130" s="148"/>
+      <c r="D130" s="150"/>
+      <c r="E130" s="110"/>
+      <c r="F130" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="H129" s="156"/>
-    </row>
-    <row r="130" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="198"/>
-      <c r="B130" s="201"/>
-      <c r="C130" s="203"/>
-      <c r="D130" s="205"/>
-      <c r="E130" s="134"/>
-      <c r="F130" s="64" t="s">
+      <c r="G130" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="G130" s="64" t="s">
+      <c r="H130" s="125"/>
+    </row>
+    <row r="131" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="144"/>
+      <c r="B131" s="146"/>
+      <c r="C131" s="148"/>
+      <c r="D131" s="150"/>
+      <c r="E131" s="110"/>
+      <c r="F131" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="G131" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H131" s="125"/>
+    </row>
+    <row r="132" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="144"/>
+      <c r="B132" s="146"/>
+      <c r="C132" s="148"/>
+      <c r="D132" s="150"/>
+      <c r="E132" s="110"/>
+      <c r="F132" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="G132" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H132" s="125"/>
+    </row>
+    <row r="133" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="144"/>
+      <c r="B133" s="146"/>
+      <c r="C133" s="148"/>
+      <c r="D133" s="150"/>
+      <c r="E133" s="110"/>
+      <c r="F133" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="H130" s="156"/>
-    </row>
-    <row r="131" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="198"/>
-      <c r="B131" s="201"/>
-      <c r="C131" s="203"/>
-      <c r="D131" s="205"/>
-      <c r="E131" s="134"/>
-      <c r="F131" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="G131" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="H131" s="156"/>
-    </row>
-    <row r="132" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="198"/>
-      <c r="B132" s="201"/>
-      <c r="C132" s="203"/>
-      <c r="D132" s="205"/>
-      <c r="E132" s="134"/>
-      <c r="F132" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="G132" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="H132" s="156"/>
-    </row>
-    <row r="133" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="198"/>
-      <c r="B133" s="201"/>
-      <c r="C133" s="203"/>
-      <c r="D133" s="205"/>
-      <c r="E133" s="134"/>
-      <c r="F133" s="64" t="s">
+      <c r="G133" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="G133" s="61" t="s">
+      <c r="H133" s="125"/>
+    </row>
+    <row r="134" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A134" s="144"/>
+      <c r="B134" s="146"/>
+      <c r="C134" s="148"/>
+      <c r="D134" s="150"/>
+      <c r="E134" s="110"/>
+      <c r="F134" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="G134" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="H133" s="156"/>
-    </row>
-    <row r="134" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A134" s="198"/>
-      <c r="B134" s="201"/>
-      <c r="C134" s="203"/>
-      <c r="D134" s="205"/>
-      <c r="E134" s="134"/>
-      <c r="F134" s="62" t="s">
+      <c r="H134" s="125"/>
+    </row>
+    <row r="135" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="144"/>
+      <c r="B135" s="146"/>
+      <c r="C135" s="148"/>
+      <c r="D135" s="150"/>
+      <c r="E135" s="110"/>
+      <c r="F135" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="G134" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="H134" s="156"/>
-    </row>
-    <row r="135" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="198"/>
-      <c r="B135" s="201"/>
-      <c r="C135" s="203"/>
-      <c r="D135" s="205"/>
-      <c r="E135" s="134"/>
-      <c r="F135" s="62" t="s">
-        <v>134</v>
-      </c>
       <c r="G135" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="H135" s="156"/>
+        <v>140</v>
+      </c>
+      <c r="H135" s="125"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="198"/>
-      <c r="B136" s="201"/>
-      <c r="C136" s="203"/>
-      <c r="D136" s="205"/>
+      <c r="A136" s="144"/>
+      <c r="B136" s="146"/>
+      <c r="C136" s="148"/>
+      <c r="D136" s="150"/>
       <c r="E136" s="85"/>
       <c r="F136" s="66"/>
       <c r="G136" s="35"/>
-      <c r="H136" s="179"/>
+      <c r="H136" s="126"/>
     </row>
     <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="198" t="s">
+      <c r="A137" s="144" t="s">
+        <v>195</v>
+      </c>
+      <c r="B137" s="145" t="s">
         <v>196</v>
       </c>
-      <c r="B137" s="200" t="s">
+      <c r="C137" s="147" t="s">
         <v>197</v>
       </c>
-      <c r="C137" s="202" t="s">
+      <c r="D137" s="149" t="s">
+        <v>1</v>
+      </c>
+      <c r="E137" s="110" t="s">
+        <v>309</v>
+      </c>
+      <c r="F137" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H137" s="113" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="144"/>
+      <c r="B138" s="146"/>
+      <c r="C138" s="148"/>
+      <c r="D138" s="150"/>
+      <c r="E138" s="110"/>
+      <c r="F138" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="G138" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H138" s="125"/>
+    </row>
+    <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="144"/>
+      <c r="B139" s="146"/>
+      <c r="C139" s="148"/>
+      <c r="D139" s="150"/>
+      <c r="E139" s="110"/>
+      <c r="F139" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="D137" s="204" t="s">
-        <v>1</v>
-      </c>
-      <c r="E137" s="134" t="s">
-        <v>86</v>
-      </c>
-      <c r="F137" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H137" s="155" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="198"/>
-      <c r="B138" s="201"/>
-      <c r="C138" s="203"/>
-      <c r="D138" s="205"/>
-      <c r="E138" s="134"/>
-      <c r="F138" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="G138" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="H138" s="156"/>
-    </row>
-    <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="198"/>
-      <c r="B139" s="201"/>
-      <c r="C139" s="203"/>
-      <c r="D139" s="205"/>
-      <c r="E139" s="134"/>
-      <c r="F139" s="64" t="s">
+      <c r="G139" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="G139" s="17" t="s">
+      <c r="H139" s="125"/>
+    </row>
+    <row r="140" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="144"/>
+      <c r="B140" s="146"/>
+      <c r="C140" s="148"/>
+      <c r="D140" s="150"/>
+      <c r="E140" s="110"/>
+      <c r="F140" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="H139" s="156"/>
-    </row>
-    <row r="140" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="198"/>
-      <c r="B140" s="201"/>
-      <c r="C140" s="203"/>
-      <c r="D140" s="205"/>
-      <c r="E140" s="134"/>
-      <c r="F140" s="64" t="s">
+      <c r="G140" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="G140" s="64" t="s">
+      <c r="H140" s="125"/>
+    </row>
+    <row r="141" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="144"/>
+      <c r="B141" s="146"/>
+      <c r="C141" s="148"/>
+      <c r="D141" s="150"/>
+      <c r="E141" s="110"/>
+      <c r="F141" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="G141" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H141" s="125"/>
+    </row>
+    <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="144"/>
+      <c r="B142" s="146"/>
+      <c r="C142" s="148"/>
+      <c r="D142" s="150"/>
+      <c r="E142" s="110"/>
+      <c r="F142" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="G142" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H142" s="125"/>
+    </row>
+    <row r="143" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="144"/>
+      <c r="B143" s="146"/>
+      <c r="C143" s="148"/>
+      <c r="D143" s="150"/>
+      <c r="E143" s="110"/>
+      <c r="F143" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="H140" s="156"/>
-    </row>
-    <row r="141" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="198"/>
-      <c r="B141" s="201"/>
-      <c r="C141" s="203"/>
-      <c r="D141" s="205"/>
-      <c r="E141" s="134"/>
-      <c r="F141" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="G141" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="H141" s="156"/>
-    </row>
-    <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="198"/>
-      <c r="B142" s="201"/>
-      <c r="C142" s="203"/>
-      <c r="D142" s="205"/>
-      <c r="E142" s="134"/>
-      <c r="F142" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="G142" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="H142" s="156"/>
-    </row>
-    <row r="143" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="198"/>
-      <c r="B143" s="201"/>
-      <c r="C143" s="203"/>
-      <c r="D143" s="205"/>
-      <c r="E143" s="134"/>
-      <c r="F143" s="64" t="s">
+      <c r="G143" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="G143" s="61" t="s">
+      <c r="H143" s="125"/>
+    </row>
+    <row r="144" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A144" s="144"/>
+      <c r="B144" s="146"/>
+      <c r="C144" s="148"/>
+      <c r="D144" s="150"/>
+      <c r="E144" s="110"/>
+      <c r="F144" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="G144" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="H143" s="156"/>
-    </row>
-    <row r="144" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A144" s="198"/>
-      <c r="B144" s="201"/>
-      <c r="C144" s="203"/>
-      <c r="D144" s="205"/>
-      <c r="E144" s="134"/>
-      <c r="F144" s="62" t="s">
+      <c r="H144" s="125"/>
+    </row>
+    <row r="145" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="144"/>
+      <c r="B145" s="146"/>
+      <c r="C145" s="148"/>
+      <c r="D145" s="150"/>
+      <c r="E145" s="110"/>
+      <c r="F145" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="G144" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="H144" s="156"/>
-    </row>
-    <row r="145" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="198"/>
-      <c r="B145" s="201"/>
-      <c r="C145" s="203"/>
-      <c r="D145" s="205"/>
-      <c r="E145" s="134"/>
-      <c r="F145" s="62" t="s">
-        <v>134</v>
-      </c>
       <c r="G145" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="H145" s="156"/>
+        <v>140</v>
+      </c>
+      <c r="H145" s="125"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="198"/>
-      <c r="B146" s="201"/>
-      <c r="C146" s="203"/>
-      <c r="D146" s="205"/>
+      <c r="A146" s="144"/>
+      <c r="B146" s="146"/>
+      <c r="C146" s="148"/>
+      <c r="D146" s="150"/>
       <c r="E146" s="85"/>
       <c r="F146" s="66"/>
       <c r="G146" s="35"/>
-      <c r="H146" s="179"/>
+      <c r="H146" s="126"/>
     </row>
     <row r="147" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="198" t="s">
+      <c r="A147" s="144" t="s">
+        <v>205</v>
+      </c>
+      <c r="B147" s="145" t="s">
+        <v>209</v>
+      </c>
+      <c r="C147" s="147" t="s">
         <v>206</v>
       </c>
-      <c r="B147" s="200" t="s">
-        <v>210</v>
-      </c>
-      <c r="C147" s="202" t="s">
+      <c r="D147" s="149" t="s">
+        <v>1</v>
+      </c>
+      <c r="E147" s="110" t="s">
+        <v>309</v>
+      </c>
+      <c r="F147" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H147" s="113" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="144"/>
+      <c r="B148" s="146"/>
+      <c r="C148" s="148"/>
+      <c r="D148" s="150"/>
+      <c r="E148" s="110"/>
+      <c r="F148" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="G148" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H148" s="125"/>
+    </row>
+    <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="144"/>
+      <c r="B149" s="146"/>
+      <c r="C149" s="148"/>
+      <c r="D149" s="150"/>
+      <c r="E149" s="110"/>
+      <c r="F149" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="D147" s="204" t="s">
-        <v>1</v>
-      </c>
-      <c r="E147" s="134" t="s">
-        <v>86</v>
-      </c>
-      <c r="F147" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H147" s="155" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="198"/>
-      <c r="B148" s="201"/>
-      <c r="C148" s="203"/>
-      <c r="D148" s="205"/>
-      <c r="E148" s="134"/>
-      <c r="F148" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="G148" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="H148" s="156"/>
-    </row>
-    <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149" s="198"/>
-      <c r="B149" s="201"/>
-      <c r="C149" s="203"/>
-      <c r="D149" s="205"/>
-      <c r="E149" s="134"/>
-      <c r="F149" s="64" t="s">
+      <c r="G149" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="G149" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="H149" s="156"/>
+      <c r="H149" s="125"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="198"/>
-      <c r="B150" s="201"/>
-      <c r="C150" s="203"/>
-      <c r="D150" s="205"/>
+      <c r="A150" s="144"/>
+      <c r="B150" s="146"/>
+      <c r="C150" s="148"/>
+      <c r="D150" s="150"/>
       <c r="E150" s="85"/>
       <c r="F150" s="66"/>
       <c r="G150" s="35"/>
-      <c r="H150" s="179"/>
+      <c r="H150" s="126"/>
     </row>
     <row r="151" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="198" t="s">
+      <c r="A151" s="144" t="s">
+        <v>210</v>
+      </c>
+      <c r="B151" s="145" t="s">
         <v>211</v>
       </c>
-      <c r="B151" s="200" t="s">
+      <c r="C151" s="147" t="s">
+        <v>214</v>
+      </c>
+      <c r="D151" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="E151" s="110" t="s">
+        <v>309</v>
+      </c>
+      <c r="F151" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H151" s="113" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="144"/>
+      <c r="B152" s="146"/>
+      <c r="C152" s="148"/>
+      <c r="D152" s="167"/>
+      <c r="E152" s="111"/>
+      <c r="F152" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="G152" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H152" s="125"/>
+    </row>
+    <row r="153" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="144"/>
+      <c r="B153" s="146"/>
+      <c r="C153" s="148"/>
+      <c r="D153" s="167"/>
+      <c r="E153" s="111"/>
+      <c r="F153" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="C151" s="202" t="s">
+      <c r="G153" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H153" s="125"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="144"/>
+      <c r="B154" s="146"/>
+      <c r="C154" s="148"/>
+      <c r="D154" s="167"/>
+      <c r="E154" s="111"/>
+      <c r="F154" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="G154" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="D151" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="E151" s="134" t="s">
-        <v>86</v>
-      </c>
-      <c r="F151" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="G151" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H151" s="155" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="198"/>
-      <c r="B152" s="201"/>
-      <c r="C152" s="203"/>
-      <c r="D152" s="152"/>
-      <c r="E152" s="105"/>
-      <c r="F152" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="G152" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="H152" s="156"/>
-    </row>
-    <row r="153" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="198"/>
-      <c r="B153" s="201"/>
-      <c r="C153" s="203"/>
-      <c r="D153" s="152"/>
-      <c r="E153" s="105"/>
-      <c r="F153" s="64" t="s">
-        <v>213</v>
-      </c>
-      <c r="G153" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="H153" s="156"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="198"/>
-      <c r="B154" s="201"/>
-      <c r="C154" s="203"/>
-      <c r="D154" s="152"/>
-      <c r="E154" s="105"/>
-      <c r="F154" s="64" t="s">
-        <v>214</v>
-      </c>
-      <c r="G154" s="64" t="s">
-        <v>216</v>
-      </c>
-      <c r="H154" s="156"/>
+      <c r="H154" s="125"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="198"/>
-      <c r="B155" s="201"/>
-      <c r="C155" s="203"/>
-      <c r="D155" s="188"/>
+      <c r="A155" s="144"/>
+      <c r="B155" s="146"/>
+      <c r="C155" s="148"/>
+      <c r="D155" s="124"/>
       <c r="E155" s="86"/>
       <c r="F155" s="66"/>
       <c r="G155" s="35"/>
-      <c r="H155" s="179"/>
+      <c r="H155" s="126"/>
     </row>
     <row r="156" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="169" t="s">
+      <c r="A156" s="151" t="s">
+        <v>217</v>
+      </c>
+      <c r="B156" s="175" t="s">
         <v>218</v>
       </c>
-      <c r="B156" s="171" t="s">
+      <c r="C156" s="104" t="s">
         <v>219</v>
       </c>
-      <c r="C156" s="159" t="s">
+      <c r="D156" s="166" t="s">
+        <v>1</v>
+      </c>
+      <c r="E156" s="178" t="s">
+        <v>309</v>
+      </c>
+      <c r="F156" s="21" t="s">
         <v>220</v>
-      </c>
-      <c r="D156" s="174" t="s">
-        <v>1</v>
-      </c>
-      <c r="E156" s="153" t="s">
-        <v>86</v>
-      </c>
-      <c r="F156" s="21" t="s">
-        <v>221</v>
       </c>
       <c r="G156" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H156" s="158" t="s">
+      <c r="H156" s="112" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="97"/>
-      <c r="B157" s="168"/>
-      <c r="C157" s="150"/>
-      <c r="D157" s="152"/>
-      <c r="E157" s="154"/>
+      <c r="A157" s="153"/>
+      <c r="B157" s="176"/>
+      <c r="C157" s="105"/>
+      <c r="D157" s="167"/>
+      <c r="E157" s="179"/>
       <c r="F157" s="21" t="s">
         <v>19</v>
       </c>
       <c r="G157" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H157" s="156"/>
+      <c r="H157" s="125"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="97"/>
-      <c r="B158" s="168"/>
-      <c r="C158" s="150"/>
-      <c r="D158" s="152"/>
-      <c r="E158" s="154"/>
+      <c r="A158" s="153"/>
+      <c r="B158" s="176"/>
+      <c r="C158" s="105"/>
+      <c r="D158" s="167"/>
+      <c r="E158" s="179"/>
       <c r="F158" s="21" t="s">
         <v>21</v>
       </c>
       <c r="G158" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H158" s="156"/>
+      <c r="H158" s="125"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="170"/>
-      <c r="B159" s="172"/>
-      <c r="C159" s="173"/>
-      <c r="D159" s="188"/>
+      <c r="A159" s="174"/>
+      <c r="B159" s="177"/>
+      <c r="C159" s="121"/>
+      <c r="D159" s="124"/>
       <c r="E159" s="54"/>
       <c r="F159" s="17"/>
       <c r="G159" s="21"/>
-      <c r="H159" s="179"/>
+      <c r="H159" s="126"/>
     </row>
     <row r="160" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="180" t="s">
+      <c r="A160" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="B160" s="183" t="s">
+      <c r="B160" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C160" s="104" t="s">
         <v>222</v>
       </c>
-      <c r="C160" s="159" t="s">
-        <v>223</v>
-      </c>
-      <c r="D160" s="174" t="s">
+      <c r="D160" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="E160" s="104" t="s">
-        <v>86</v>
+      <c r="E160" s="137" t="s">
+        <v>309</v>
       </c>
       <c r="F160" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G160" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H160" s="158" t="s">
+      <c r="H160" s="112" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="181"/>
-      <c r="B161" s="184"/>
-      <c r="C161" s="150"/>
-      <c r="D161" s="152"/>
-      <c r="E161" s="105"/>
+      <c r="A161" s="116"/>
+      <c r="B161" s="119"/>
+      <c r="C161" s="105"/>
+      <c r="D161" s="167"/>
+      <c r="E161" s="111"/>
       <c r="F161" s="21" t="s">
         <v>23</v>
       </c>
       <c r="G161" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="H161" s="155"/>
+        <v>223</v>
+      </c>
+      <c r="H161" s="113"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="182"/>
-      <c r="B162" s="185"/>
-      <c r="C162" s="173"/>
-      <c r="D162" s="188"/>
+      <c r="A162" s="117"/>
+      <c r="B162" s="120"/>
+      <c r="C162" s="121"/>
+      <c r="D162" s="124"/>
       <c r="E162" s="54"/>
       <c r="F162" s="19"/>
       <c r="G162" s="27"/>
-      <c r="H162" s="193"/>
+      <c r="H162" s="168"/>
     </row>
     <row r="163" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="180" t="s">
+      <c r="A163" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="B163" s="183" t="s">
-        <v>225</v>
-      </c>
-      <c r="C163" s="159" t="s">
-        <v>230</v>
-      </c>
-      <c r="D163" s="189" t="s">
+      <c r="B163" s="118" t="s">
+        <v>224</v>
+      </c>
+      <c r="C163" s="104" t="s">
+        <v>229</v>
+      </c>
+      <c r="D163" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="E163" s="134" t="s">
-        <v>86</v>
+      <c r="E163" s="110" t="s">
+        <v>309</v>
       </c>
       <c r="F163" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G163" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H163" s="233" t="s">
+      <c r="H163" s="183" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="181"/>
-      <c r="B164" s="184"/>
-      <c r="C164" s="150"/>
-      <c r="D164" s="190"/>
-      <c r="E164" s="105"/>
+      <c r="A164" s="116"/>
+      <c r="B164" s="119"/>
+      <c r="C164" s="105"/>
+      <c r="D164" s="181"/>
+      <c r="E164" s="111"/>
       <c r="F164" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="G164" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="G164" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="H164" s="234"/>
+      <c r="H164" s="184"/>
     </row>
     <row r="165" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="181"/>
-      <c r="B165" s="184"/>
-      <c r="C165" s="150"/>
-      <c r="D165" s="190"/>
-      <c r="E165" s="105"/>
+      <c r="A165" s="116"/>
+      <c r="B165" s="119"/>
+      <c r="C165" s="105"/>
+      <c r="D165" s="181"/>
+      <c r="E165" s="111"/>
       <c r="F165" s="29" t="s">
         <v>26</v>
       </c>
       <c r="G165" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="H165" s="184"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="116"/>
+      <c r="B166" s="119"/>
+      <c r="C166" s="105"/>
+      <c r="D166" s="181"/>
+      <c r="E166" s="111"/>
+      <c r="F166" s="28" t="s">
         <v>228</v>
-      </c>
-      <c r="H165" s="234"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="181"/>
-      <c r="B166" s="184"/>
-      <c r="C166" s="150"/>
-      <c r="D166" s="190"/>
-      <c r="E166" s="105"/>
-      <c r="F166" s="28" t="s">
-        <v>229</v>
       </c>
       <c r="G166" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H166" s="234"/>
+      <c r="H166" s="184"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="182"/>
-      <c r="B167" s="185"/>
-      <c r="C167" s="173"/>
-      <c r="D167" s="191"/>
+      <c r="A167" s="117"/>
+      <c r="B167" s="120"/>
+      <c r="C167" s="121"/>
+      <c r="D167" s="182"/>
       <c r="E167" s="87"/>
       <c r="F167" s="30"/>
       <c r="G167" s="31"/>
-      <c r="H167" s="235"/>
+      <c r="H167" s="185"/>
     </row>
     <row r="168" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="180" t="s">
+      <c r="A168" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="B168" s="183" t="s">
+      <c r="B168" s="118" t="s">
+        <v>230</v>
+      </c>
+      <c r="C168" s="104" t="s">
         <v>231</v>
       </c>
-      <c r="C168" s="159" t="s">
-        <v>232</v>
-      </c>
-      <c r="D168" s="189" t="s">
+      <c r="D168" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="E168" s="134" t="s">
-        <v>86</v>
+      <c r="E168" s="110" t="s">
+        <v>309</v>
       </c>
       <c r="F168" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G168" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H168" s="233" t="s">
+      <c r="H168" s="183" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="181"/>
-      <c r="B169" s="184"/>
-      <c r="C169" s="150"/>
-      <c r="D169" s="190"/>
-      <c r="E169" s="105"/>
+      <c r="A169" s="116"/>
+      <c r="B169" s="119"/>
+      <c r="C169" s="105"/>
+      <c r="D169" s="181"/>
+      <c r="E169" s="111"/>
       <c r="F169" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="G169" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="G169" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="H169" s="234"/>
-    </row>
-    <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="181"/>
-      <c r="B170" s="184"/>
-      <c r="C170" s="150"/>
-      <c r="D170" s="190"/>
-      <c r="E170" s="105"/>
+      <c r="H169" s="184"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="116"/>
+      <c r="B170" s="119"/>
+      <c r="C170" s="105"/>
+      <c r="D170" s="181"/>
+      <c r="E170" s="111"/>
       <c r="F170" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="G170" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="G170" s="28" t="s">
+      <c r="H170" s="184"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="116"/>
+      <c r="B171" s="119"/>
+      <c r="C171" s="105"/>
+      <c r="D171" s="181"/>
+      <c r="E171" s="111"/>
+      <c r="F171" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="G171" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="H170" s="234"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="181"/>
-      <c r="B171" s="184"/>
-      <c r="C171" s="150"/>
-      <c r="D171" s="190"/>
-      <c r="E171" s="105"/>
-      <c r="F171" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="G171" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="H171" s="234"/>
+      <c r="H171" s="184"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="182"/>
-      <c r="B172" s="185"/>
-      <c r="C172" s="173"/>
-      <c r="D172" s="191"/>
+      <c r="A172" s="117"/>
+      <c r="B172" s="120"/>
+      <c r="C172" s="121"/>
+      <c r="D172" s="182"/>
       <c r="E172" s="87"/>
       <c r="F172" s="30"/>
       <c r="G172" s="31"/>
-      <c r="H172" s="235"/>
+      <c r="H172" s="185"/>
     </row>
     <row r="173" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="169" t="s">
+      <c r="A173" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="B173" s="183" t="s">
+      <c r="B173" s="118" t="s">
+        <v>235</v>
+      </c>
+      <c r="C173" s="104" t="s">
         <v>236</v>
       </c>
-      <c r="C173" s="159" t="s">
-        <v>237</v>
-      </c>
-      <c r="D173" s="174" t="s">
+      <c r="D173" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="E173" s="134" t="s">
-        <v>86</v>
+      <c r="E173" s="110" t="s">
+        <v>309</v>
       </c>
       <c r="F173" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G173" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H173" s="158" t="s">
+      <c r="H173" s="112" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="97"/>
-      <c r="B174" s="184"/>
-      <c r="C174" s="150"/>
-      <c r="D174" s="152"/>
-      <c r="E174" s="105"/>
+      <c r="A174" s="153"/>
+      <c r="B174" s="119"/>
+      <c r="C174" s="105"/>
+      <c r="D174" s="167"/>
+      <c r="E174" s="111"/>
       <c r="F174" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="G174" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="G174" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="H174" s="156"/>
+      <c r="H174" s="125"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="97"/>
-      <c r="B175" s="184"/>
-      <c r="C175" s="150"/>
-      <c r="D175" s="152"/>
-      <c r="E175" s="105"/>
+      <c r="A175" s="153"/>
+      <c r="B175" s="119"/>
+      <c r="C175" s="105"/>
+      <c r="D175" s="167"/>
+      <c r="E175" s="111"/>
       <c r="F175" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="G175" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="G175" s="13" t="s">
+      <c r="H175" s="125"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="153"/>
+      <c r="B176" s="119"/>
+      <c r="C176" s="105"/>
+      <c r="D176" s="167"/>
+      <c r="E176" s="111"/>
+      <c r="F176" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="G176" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="H175" s="156"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="97"/>
-      <c r="B176" s="184"/>
-      <c r="C176" s="150"/>
-      <c r="D176" s="152"/>
-      <c r="E176" s="105"/>
-      <c r="F176" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="G176" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="H176" s="156"/>
+      <c r="H176" s="125"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="170"/>
-      <c r="B177" s="185"/>
-      <c r="C177" s="173"/>
-      <c r="D177" s="188"/>
+      <c r="A177" s="174"/>
+      <c r="B177" s="120"/>
+      <c r="C177" s="121"/>
+      <c r="D177" s="124"/>
       <c r="E177" s="54"/>
       <c r="F177" s="17"/>
       <c r="G177" s="13"/>
-      <c r="H177" s="179"/>
+      <c r="H177" s="126"/>
     </row>
     <row r="178" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="169" t="s">
-        <v>241</v>
-      </c>
-      <c r="B178" s="183" t="s">
-        <v>250</v>
-      </c>
-      <c r="C178" s="159" t="s">
-        <v>254</v>
-      </c>
-      <c r="D178" s="174" t="s">
+      <c r="A178" s="151" t="s">
+        <v>240</v>
+      </c>
+      <c r="B178" s="118" t="s">
+        <v>249</v>
+      </c>
+      <c r="C178" s="104" t="s">
+        <v>253</v>
+      </c>
+      <c r="D178" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="E178" s="176" t="s">
-        <v>86</v>
+      <c r="E178" s="187" t="s">
+        <v>309</v>
       </c>
       <c r="F178" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G178" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H178" s="158" t="s">
+      <c r="H178" s="112" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="97"/>
-      <c r="B179" s="184"/>
-      <c r="C179" s="150"/>
-      <c r="D179" s="152"/>
-      <c r="E179" s="177"/>
+      <c r="A179" s="153"/>
+      <c r="B179" s="119"/>
+      <c r="C179" s="105"/>
+      <c r="D179" s="167"/>
+      <c r="E179" s="188"/>
       <c r="F179" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="G179" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="G179" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="H179" s="156"/>
+      <c r="H179" s="125"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="97"/>
-      <c r="B180" s="184"/>
-      <c r="C180" s="150"/>
-      <c r="D180" s="152"/>
-      <c r="E180" s="177"/>
+      <c r="A180" s="153"/>
+      <c r="B180" s="119"/>
+      <c r="C180" s="105"/>
+      <c r="D180" s="167"/>
+      <c r="E180" s="188"/>
       <c r="F180" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="G180" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="G180" s="13" t="s">
+      <c r="H180" s="125"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="153"/>
+      <c r="B181" s="119"/>
+      <c r="C181" s="105"/>
+      <c r="D181" s="167"/>
+      <c r="E181" s="188"/>
+      <c r="F181" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="G181" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="H180" s="156"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="97"/>
-      <c r="B181" s="184"/>
-      <c r="C181" s="150"/>
-      <c r="D181" s="152"/>
-      <c r="E181" s="177"/>
-      <c r="F181" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="G181" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="H181" s="156"/>
+      <c r="H181" s="125"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="97"/>
-      <c r="B182" s="184"/>
-      <c r="C182" s="150"/>
-      <c r="D182" s="152"/>
-      <c r="E182" s="178"/>
+      <c r="A182" s="153"/>
+      <c r="B182" s="119"/>
+      <c r="C182" s="105"/>
+      <c r="D182" s="167"/>
+      <c r="E182" s="114"/>
       <c r="F182" s="13"/>
       <c r="G182" s="13"/>
-      <c r="H182" s="156"/>
+      <c r="H182" s="125"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="170"/>
-      <c r="B183" s="185"/>
-      <c r="C183" s="173"/>
-      <c r="D183" s="175"/>
+      <c r="A183" s="174"/>
+      <c r="B183" s="120"/>
+      <c r="C183" s="121"/>
+      <c r="D183" s="186"/>
       <c r="E183" s="5"/>
       <c r="F183" s="13"/>
       <c r="G183" s="13"/>
-      <c r="H183" s="179"/>
+      <c r="H183" s="126"/>
     </row>
     <row r="184" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="169" t="s">
-        <v>249</v>
-      </c>
-      <c r="B184" s="171" t="s">
-        <v>307</v>
-      </c>
-      <c r="C184" s="159" t="s">
-        <v>242</v>
-      </c>
-      <c r="D184" s="174" t="s">
+      <c r="A184" s="151" t="s">
+        <v>248</v>
+      </c>
+      <c r="B184" s="175" t="s">
+        <v>306</v>
+      </c>
+      <c r="C184" s="104" t="s">
+        <v>241</v>
+      </c>
+      <c r="D184" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="E184" s="176" t="s">
-        <v>86</v>
+      <c r="E184" s="187" t="s">
+        <v>309</v>
       </c>
       <c r="F184" s="13" t="s">
         <v>17</v>
@@ -5728,255 +5728,255 @@
       <c r="G184" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H184" s="192" t="s">
-        <v>306</v>
+      <c r="H184" s="207" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="97"/>
-      <c r="B185" s="168"/>
-      <c r="C185" s="150"/>
-      <c r="D185" s="152"/>
-      <c r="E185" s="177"/>
+      <c r="A185" s="153"/>
+      <c r="B185" s="176"/>
+      <c r="C185" s="105"/>
+      <c r="D185" s="167"/>
+      <c r="E185" s="188"/>
       <c r="F185" s="13" t="s">
         <v>24</v>
       </c>
       <c r="G185" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H185" s="229"/>
+      <c r="H185" s="208"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="97"/>
-      <c r="B186" s="168"/>
-      <c r="C186" s="150"/>
-      <c r="D186" s="152"/>
-      <c r="E186" s="177"/>
+      <c r="A186" s="153"/>
+      <c r="B186" s="176"/>
+      <c r="C186" s="105"/>
+      <c r="D186" s="167"/>
+      <c r="E186" s="188"/>
       <c r="F186" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="G186" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="G186" s="13" t="s">
+      <c r="H186" s="208"/>
+    </row>
+    <row r="187" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="153"/>
+      <c r="B187" s="176"/>
+      <c r="C187" s="105"/>
+      <c r="D187" s="167"/>
+      <c r="E187" s="188"/>
+      <c r="F187" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="H186" s="229"/>
-    </row>
-    <row r="187" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A187" s="97"/>
-      <c r="B187" s="168"/>
-      <c r="C187" s="150"/>
-      <c r="D187" s="152"/>
-      <c r="E187" s="177"/>
-      <c r="F187" s="13" t="s">
+      <c r="G187" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="G187" s="13" t="s">
+      <c r="H187" s="208"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="153"/>
+      <c r="B188" s="176"/>
+      <c r="C188" s="105"/>
+      <c r="D188" s="167"/>
+      <c r="E188" s="114"/>
+      <c r="F188" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="H187" s="229"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="97"/>
-      <c r="B188" s="168"/>
-      <c r="C188" s="150"/>
-      <c r="D188" s="152"/>
-      <c r="E188" s="178"/>
-      <c r="F188" s="13" t="s">
+      <c r="G188" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="G188" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="H188" s="229"/>
+      <c r="H188" s="208"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="97"/>
-      <c r="B189" s="168"/>
-      <c r="C189" s="150"/>
-      <c r="D189" s="152"/>
+      <c r="A189" s="153"/>
+      <c r="B189" s="176"/>
+      <c r="C189" s="105"/>
+      <c r="D189" s="167"/>
       <c r="E189" s="88"/>
       <c r="F189" s="13"/>
       <c r="G189" s="13"/>
-      <c r="H189" s="229"/>
+      <c r="H189" s="208"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="170"/>
-      <c r="B190" s="172"/>
-      <c r="C190" s="173"/>
-      <c r="D190" s="175"/>
+      <c r="A190" s="174"/>
+      <c r="B190" s="177"/>
+      <c r="C190" s="121"/>
+      <c r="D190" s="186"/>
       <c r="E190" s="20"/>
       <c r="F190" s="13"/>
       <c r="G190" s="13"/>
-      <c r="H190" s="230"/>
+      <c r="H190" s="209"/>
     </row>
     <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A191" s="180" t="s">
+      <c r="A191" s="115" t="s">
+        <v>263</v>
+      </c>
+      <c r="B191" s="118" t="s">
         <v>264</v>
       </c>
-      <c r="B191" s="183" t="s">
+      <c r="C191" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="C191" s="159" t="s">
+      <c r="D191" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="E191" s="110" t="s">
+        <v>309</v>
+      </c>
+      <c r="F191" s="17" t="s">
         <v>266</v>
-      </c>
-      <c r="D191" s="186" t="s">
-        <v>1</v>
-      </c>
-      <c r="E191" s="134" t="s">
-        <v>86</v>
-      </c>
-      <c r="F191" s="17" t="s">
-        <v>267</v>
       </c>
       <c r="G191" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H191" s="158" t="s">
+      <c r="H191" s="112" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="181"/>
-      <c r="B192" s="184"/>
-      <c r="C192" s="150"/>
-      <c r="D192" s="187"/>
-      <c r="E192" s="105"/>
+      <c r="A192" s="116"/>
+      <c r="B192" s="119"/>
+      <c r="C192" s="105"/>
+      <c r="D192" s="123"/>
+      <c r="E192" s="111"/>
       <c r="F192" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="G192" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="G192" s="13" t="s">
+      <c r="H192" s="125"/>
+    </row>
+    <row r="193" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="116"/>
+      <c r="B193" s="119"/>
+      <c r="C193" s="105"/>
+      <c r="D193" s="123"/>
+      <c r="E193" s="111"/>
+      <c r="F193" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="H192" s="156"/>
-    </row>
-    <row r="193" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A193" s="181"/>
-      <c r="B193" s="184"/>
-      <c r="C193" s="150"/>
-      <c r="D193" s="187"/>
-      <c r="E193" s="105"/>
-      <c r="F193" s="17" t="s">
+      <c r="G193" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="G193" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="H193" s="156"/>
+      <c r="H193" s="125"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="181"/>
-      <c r="B194" s="184"/>
-      <c r="C194" s="150"/>
-      <c r="D194" s="187"/>
-      <c r="E194" s="105"/>
+      <c r="A194" s="116"/>
+      <c r="B194" s="119"/>
+      <c r="C194" s="105"/>
+      <c r="D194" s="123"/>
+      <c r="E194" s="111"/>
       <c r="F194" s="17" t="s">
         <v>28</v>
       </c>
       <c r="G194" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H194" s="156"/>
+      <c r="H194" s="125"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="182"/>
-      <c r="B195" s="185"/>
-      <c r="C195" s="173"/>
-      <c r="D195" s="188"/>
+      <c r="A195" s="117"/>
+      <c r="B195" s="120"/>
+      <c r="C195" s="121"/>
+      <c r="D195" s="124"/>
       <c r="E195" s="54"/>
       <c r="F195" s="17"/>
       <c r="G195" s="13"/>
-      <c r="H195" s="179"/>
+      <c r="H195" s="126"/>
     </row>
     <row r="196" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="180" t="s">
+      <c r="A196" s="115" t="s">
+        <v>271</v>
+      </c>
+      <c r="B196" s="118" t="s">
         <v>272</v>
       </c>
-      <c r="B196" s="183" t="s">
+      <c r="C196" s="104" t="s">
         <v>273</v>
       </c>
-      <c r="C196" s="159" t="s">
-        <v>274</v>
-      </c>
-      <c r="D196" s="186" t="s">
+      <c r="D196" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="E196" s="134" t="s">
-        <v>86</v>
+      <c r="E196" s="110" t="s">
+        <v>309</v>
       </c>
       <c r="F196" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G196" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H196" s="158" t="s">
+      <c r="H196" s="112" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="181"/>
-      <c r="B197" s="184"/>
-      <c r="C197" s="150"/>
-      <c r="D197" s="187"/>
-      <c r="E197" s="105"/>
+      <c r="A197" s="116"/>
+      <c r="B197" s="119"/>
+      <c r="C197" s="105"/>
+      <c r="D197" s="123"/>
+      <c r="E197" s="111"/>
       <c r="F197" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="G197" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="G197" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="H197" s="156"/>
+      <c r="H197" s="125"/>
     </row>
     <row r="198" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="181"/>
-      <c r="B198" s="184"/>
-      <c r="C198" s="150"/>
-      <c r="D198" s="187"/>
-      <c r="E198" s="105"/>
+      <c r="A198" s="116"/>
+      <c r="B198" s="119"/>
+      <c r="C198" s="105"/>
+      <c r="D198" s="123"/>
+      <c r="E198" s="111"/>
       <c r="F198" s="17" t="s">
         <v>30</v>
       </c>
       <c r="G198" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="H198" s="125"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="116"/>
+      <c r="B199" s="119"/>
+      <c r="C199" s="105"/>
+      <c r="D199" s="123"/>
+      <c r="E199" s="111"/>
+      <c r="F199" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="H198" s="156"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="181"/>
-      <c r="B199" s="184"/>
-      <c r="C199" s="150"/>
-      <c r="D199" s="187"/>
-      <c r="E199" s="105"/>
-      <c r="F199" s="17" t="s">
+      <c r="G199" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="G199" s="13" t="s">
+      <c r="H199" s="125"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="116"/>
+      <c r="B200" s="119"/>
+      <c r="C200" s="105"/>
+      <c r="D200" s="123"/>
+      <c r="E200" s="111"/>
+      <c r="F200" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="H199" s="156"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="181"/>
-      <c r="B200" s="184"/>
-      <c r="C200" s="150"/>
-      <c r="D200" s="187"/>
-      <c r="E200" s="105"/>
-      <c r="F200" s="17" t="s">
+      <c r="G200" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="G200" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="H200" s="156"/>
+      <c r="H200" s="125"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="182"/>
-      <c r="B201" s="185"/>
-      <c r="C201" s="173"/>
-      <c r="D201" s="188"/>
+      <c r="A201" s="117"/>
+      <c r="B201" s="120"/>
+      <c r="C201" s="121"/>
+      <c r="D201" s="124"/>
       <c r="E201" s="54"/>
       <c r="F201" s="17"/>
       <c r="G201" s="13"/>
-      <c r="H201" s="179"/>
+      <c r="H201" s="126"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
@@ -5989,26 +5989,26 @@
       <c r="H202" s="25"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="90"/>
-      <c r="B203" s="91"/>
-      <c r="C203" s="91"/>
-      <c r="D203" s="91"/>
-      <c r="E203" s="142"/>
-      <c r="F203" s="91"/>
-      <c r="G203" s="91"/>
-      <c r="H203" s="92"/>
+      <c r="A203" s="189"/>
+      <c r="B203" s="92"/>
+      <c r="C203" s="92"/>
+      <c r="D203" s="92"/>
+      <c r="E203" s="91"/>
+      <c r="F203" s="92"/>
+      <c r="G203" s="92"/>
+      <c r="H203" s="93"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="93" t="s">
-        <v>280</v>
-      </c>
-      <c r="B204" s="94"/>
-      <c r="C204" s="94"/>
-      <c r="D204" s="94"/>
-      <c r="E204" s="94"/>
-      <c r="F204" s="94"/>
-      <c r="G204" s="94"/>
-      <c r="H204" s="95"/>
+      <c r="A204" s="94" t="s">
+        <v>279</v>
+      </c>
+      <c r="B204" s="95"/>
+      <c r="C204" s="95"/>
+      <c r="D204" s="95"/>
+      <c r="E204" s="95"/>
+      <c r="F204" s="95"/>
+      <c r="G204" s="95"/>
+      <c r="H204" s="97"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="11"/>
@@ -6021,128 +6021,128 @@
       <c r="H205" s="25"/>
     </row>
     <row r="206" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="118" t="s">
+      <c r="A206" s="190" t="s">
+        <v>280</v>
+      </c>
+      <c r="B206" s="194" t="s">
         <v>281</v>
       </c>
-      <c r="B206" s="122" t="s">
+      <c r="C206" s="198" t="s">
         <v>282</v>
       </c>
-      <c r="C206" s="126" t="s">
+      <c r="D206" s="202" t="s">
+        <v>1</v>
+      </c>
+      <c r="E206" s="110" t="s">
+        <v>309</v>
+      </c>
+      <c r="F206" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="D206" s="130" t="s">
-        <v>1</v>
-      </c>
-      <c r="E206" s="134" t="s">
-        <v>86</v>
-      </c>
-      <c r="F206" s="16" t="s">
+      <c r="G206" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="G206" s="16" t="s">
+      <c r="H206" s="210" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="191"/>
+      <c r="B207" s="195"/>
+      <c r="C207" s="199"/>
+      <c r="D207" s="203"/>
+      <c r="E207" s="111"/>
+      <c r="F207" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="H206" s="231" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" s="119"/>
-      <c r="B207" s="123"/>
-      <c r="C207" s="127"/>
-      <c r="D207" s="131"/>
-      <c r="E207" s="105"/>
-      <c r="F207" s="22" t="s">
+      <c r="G207" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="H207" s="211"/>
+    </row>
+    <row r="208" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A208" s="192"/>
+      <c r="B208" s="196"/>
+      <c r="C208" s="200"/>
+      <c r="D208" s="204"/>
+      <c r="E208" s="206"/>
+      <c r="F208" s="22" t="s">
         <v>286</v>
-      </c>
-      <c r="G207" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="H207" s="232"/>
-    </row>
-    <row r="208" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A208" s="120"/>
-      <c r="B208" s="124"/>
-      <c r="C208" s="128"/>
-      <c r="D208" s="132"/>
-      <c r="E208" s="135"/>
-      <c r="F208" s="22" t="s">
-        <v>287</v>
       </c>
       <c r="G208" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H208" s="232"/>
+      <c r="H208" s="211"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="121"/>
-      <c r="B209" s="125"/>
-      <c r="C209" s="129"/>
-      <c r="D209" s="133"/>
+      <c r="A209" s="193"/>
+      <c r="B209" s="197"/>
+      <c r="C209" s="201"/>
+      <c r="D209" s="205"/>
       <c r="E209" s="82"/>
       <c r="F209" s="22"/>
       <c r="G209" s="22"/>
       <c r="H209" s="40"/>
     </row>
     <row r="210" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="118" t="s">
+      <c r="A210" s="190" t="s">
+        <v>287</v>
+      </c>
+      <c r="B210" s="194" t="s">
         <v>288</v>
       </c>
-      <c r="B210" s="122" t="s">
+      <c r="C210" s="198" t="s">
+        <v>282</v>
+      </c>
+      <c r="D210" s="202" t="s">
+        <v>1</v>
+      </c>
+      <c r="E210" s="110" t="s">
+        <v>309</v>
+      </c>
+      <c r="F210" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="G210" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="H210" s="210" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" s="191"/>
+      <c r="B211" s="195"/>
+      <c r="C211" s="199"/>
+      <c r="D211" s="203"/>
+      <c r="E211" s="111"/>
+      <c r="F211" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="G211" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="H211" s="211"/>
+    </row>
+    <row r="212" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A212" s="192"/>
+      <c r="B212" s="196"/>
+      <c r="C212" s="200"/>
+      <c r="D212" s="204"/>
+      <c r="E212" s="206"/>
+      <c r="F212" s="22" t="s">
         <v>289</v>
-      </c>
-      <c r="C210" s="126" t="s">
-        <v>283</v>
-      </c>
-      <c r="D210" s="130" t="s">
-        <v>1</v>
-      </c>
-      <c r="E210" s="134" t="s">
-        <v>86</v>
-      </c>
-      <c r="F210" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="G210" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="H210" s="231" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="119"/>
-      <c r="B211" s="123"/>
-      <c r="C211" s="127"/>
-      <c r="D211" s="131"/>
-      <c r="E211" s="105"/>
-      <c r="F211" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="G211" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="H211" s="232"/>
-    </row>
-    <row r="212" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A212" s="120"/>
-      <c r="B212" s="124"/>
-      <c r="C212" s="128"/>
-      <c r="D212" s="132"/>
-      <c r="E212" s="135"/>
-      <c r="F212" s="22" t="s">
-        <v>290</v>
       </c>
       <c r="G212" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H212" s="232"/>
+      <c r="H212" s="211"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="121"/>
-      <c r="B213" s="125"/>
-      <c r="C213" s="129"/>
-      <c r="D213" s="133"/>
+      <c r="A213" s="193"/>
+      <c r="B213" s="197"/>
+      <c r="C213" s="201"/>
+      <c r="D213" s="205"/>
       <c r="E213" s="82"/>
       <c r="F213" s="22"/>
       <c r="G213" s="22"/>
@@ -6159,26 +6159,26 @@
       <c r="H214" s="25"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="90"/>
-      <c r="B215" s="91"/>
-      <c r="C215" s="91"/>
-      <c r="D215" s="91"/>
-      <c r="E215" s="91"/>
-      <c r="F215" s="91"/>
-      <c r="G215" s="91"/>
-      <c r="H215" s="92"/>
+      <c r="A215" s="189"/>
+      <c r="B215" s="92"/>
+      <c r="C215" s="92"/>
+      <c r="D215" s="92"/>
+      <c r="E215" s="92"/>
+      <c r="F215" s="92"/>
+      <c r="G215" s="92"/>
+      <c r="H215" s="93"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="143" t="s">
-        <v>292</v>
-      </c>
-      <c r="B216" s="144"/>
-      <c r="C216" s="144"/>
-      <c r="D216" s="144"/>
-      <c r="E216" s="144"/>
-      <c r="F216" s="144"/>
-      <c r="G216" s="144"/>
-      <c r="H216" s="145"/>
+      <c r="A216" s="218" t="s">
+        <v>291</v>
+      </c>
+      <c r="B216" s="96"/>
+      <c r="C216" s="96"/>
+      <c r="D216" s="96"/>
+      <c r="E216" s="96"/>
+      <c r="F216" s="96"/>
+      <c r="G216" s="96"/>
+      <c r="H216" s="219"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="36"/>
@@ -6191,20 +6191,20 @@
       <c r="H217" s="38"/>
     </row>
     <row r="218" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A218" s="146" t="s">
+      <c r="A218" s="152" t="s">
+        <v>292</v>
+      </c>
+      <c r="B218" s="220" t="s">
+        <v>294</v>
+      </c>
+      <c r="C218" s="221" t="s">
         <v>293</v>
       </c>
-      <c r="B218" s="147" t="s">
-        <v>295</v>
-      </c>
-      <c r="C218" s="149" t="s">
-        <v>294</v>
-      </c>
-      <c r="D218" s="151" t="s">
+      <c r="D218" s="222" t="s">
         <v>1</v>
       </c>
-      <c r="E218" s="153" t="s">
-        <v>86</v>
+      <c r="E218" s="178" t="s">
+        <v>309</v>
       </c>
       <c r="F218" s="39" t="s">
         <v>31</v>
@@ -6212,47 +6212,47 @@
       <c r="G218" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="H218" s="155" t="s">
+      <c r="H218" s="113" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A219" s="97"/>
-      <c r="B219" s="148"/>
-      <c r="C219" s="150"/>
-      <c r="D219" s="152"/>
-      <c r="E219" s="154"/>
+      <c r="A219" s="153"/>
+      <c r="B219" s="102"/>
+      <c r="C219" s="105"/>
+      <c r="D219" s="167"/>
+      <c r="E219" s="179"/>
       <c r="F219" s="34" t="s">
         <v>33</v>
       </c>
       <c r="G219" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H219" s="156"/>
+      <c r="H219" s="125"/>
     </row>
     <row r="220" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A220" s="97"/>
-      <c r="B220" s="148"/>
-      <c r="C220" s="150"/>
-      <c r="D220" s="152"/>
-      <c r="E220" s="154"/>
+      <c r="A220" s="153"/>
+      <c r="B220" s="102"/>
+      <c r="C220" s="105"/>
+      <c r="D220" s="167"/>
+      <c r="E220" s="179"/>
       <c r="F220" s="33" t="s">
         <v>35</v>
       </c>
       <c r="G220" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H220" s="156"/>
+      <c r="H220" s="125"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="97"/>
-      <c r="B221" s="148"/>
-      <c r="C221" s="150"/>
-      <c r="D221" s="152"/>
-      <c r="E221" s="154"/>
+      <c r="A221" s="153"/>
+      <c r="B221" s="102"/>
+      <c r="C221" s="105"/>
+      <c r="D221" s="167"/>
+      <c r="E221" s="179"/>
       <c r="F221" s="13"/>
       <c r="G221" s="13"/>
-      <c r="H221" s="156"/>
+      <c r="H221" s="125"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="11"/>
@@ -6265,14 +6265,14 @@
       <c r="H222" s="25"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="90"/>
-      <c r="B223" s="91"/>
-      <c r="C223" s="91"/>
-      <c r="D223" s="91"/>
-      <c r="E223" s="142"/>
-      <c r="F223" s="91"/>
-      <c r="G223" s="91"/>
-      <c r="H223" s="92"/>
+      <c r="A223" s="189"/>
+      <c r="B223" s="92"/>
+      <c r="C223" s="92"/>
+      <c r="D223" s="92"/>
+      <c r="E223" s="91"/>
+      <c r="F223" s="92"/>
+      <c r="G223" s="92"/>
+      <c r="H223" s="93"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C224" s="78"/>
@@ -6783,6 +6783,180 @@
     </row>
   </sheetData>
   <mergeCells count="198">
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="B41:B50"/>
+    <mergeCell ref="C41:C50"/>
+    <mergeCell ref="D41:D50"/>
+    <mergeCell ref="A210:A213"/>
+    <mergeCell ref="B210:B213"/>
+    <mergeCell ref="C210:C213"/>
+    <mergeCell ref="D210:D213"/>
+    <mergeCell ref="E210:E212"/>
+    <mergeCell ref="H210:H212"/>
+    <mergeCell ref="A3:H4"/>
+    <mergeCell ref="A223:H223"/>
+    <mergeCell ref="A215:H215"/>
+    <mergeCell ref="A216:H216"/>
+    <mergeCell ref="A218:A221"/>
+    <mergeCell ref="B218:B221"/>
+    <mergeCell ref="C218:C221"/>
+    <mergeCell ref="D218:D221"/>
+    <mergeCell ref="E218:E221"/>
+    <mergeCell ref="H218:H221"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="H5:H12"/>
+    <mergeCell ref="B65:B76"/>
+    <mergeCell ref="C65:C76"/>
+    <mergeCell ref="A203:H203"/>
+    <mergeCell ref="A204:H204"/>
+    <mergeCell ref="A206:A209"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="D206:D209"/>
+    <mergeCell ref="E206:E208"/>
+    <mergeCell ref="A184:A190"/>
+    <mergeCell ref="B184:B190"/>
+    <mergeCell ref="C184:C190"/>
+    <mergeCell ref="D184:D190"/>
+    <mergeCell ref="E184:E188"/>
+    <mergeCell ref="H184:H190"/>
+    <mergeCell ref="A196:A201"/>
+    <mergeCell ref="B196:B201"/>
+    <mergeCell ref="C196:C201"/>
+    <mergeCell ref="D196:D201"/>
+    <mergeCell ref="E196:E200"/>
+    <mergeCell ref="H196:H201"/>
+    <mergeCell ref="H206:H208"/>
+    <mergeCell ref="A178:A183"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="C178:C183"/>
+    <mergeCell ref="D178:D183"/>
+    <mergeCell ref="E178:E182"/>
+    <mergeCell ref="H178:H183"/>
+    <mergeCell ref="A173:A177"/>
+    <mergeCell ref="B173:B177"/>
+    <mergeCell ref="C173:C177"/>
+    <mergeCell ref="D173:D177"/>
+    <mergeCell ref="E173:E176"/>
+    <mergeCell ref="H173:H177"/>
+    <mergeCell ref="A168:A172"/>
+    <mergeCell ref="B168:B172"/>
+    <mergeCell ref="C168:C172"/>
+    <mergeCell ref="D168:D172"/>
+    <mergeCell ref="E168:E171"/>
+    <mergeCell ref="H168:H172"/>
+    <mergeCell ref="A163:A167"/>
+    <mergeCell ref="B163:B167"/>
+    <mergeCell ref="C163:C167"/>
+    <mergeCell ref="D163:D167"/>
+    <mergeCell ref="E163:E166"/>
+    <mergeCell ref="H163:H167"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="C160:C162"/>
+    <mergeCell ref="D160:D162"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="H160:H162"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A156:A159"/>
+    <mergeCell ref="B156:B159"/>
+    <mergeCell ref="C156:C159"/>
+    <mergeCell ref="D156:D159"/>
+    <mergeCell ref="E156:E158"/>
+    <mergeCell ref="H156:H159"/>
+    <mergeCell ref="A77:A86"/>
+    <mergeCell ref="B77:B86"/>
+    <mergeCell ref="C77:C86"/>
+    <mergeCell ref="D77:D86"/>
+    <mergeCell ref="E77:E85"/>
+    <mergeCell ref="H77:H86"/>
+    <mergeCell ref="A87:A96"/>
+    <mergeCell ref="B87:B96"/>
+    <mergeCell ref="C87:C96"/>
+    <mergeCell ref="D87:D96"/>
+    <mergeCell ref="A147:A150"/>
+    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="C147:C150"/>
+    <mergeCell ref="D147:D150"/>
+    <mergeCell ref="E147:E149"/>
+    <mergeCell ref="H147:H150"/>
+    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="C151:C155"/>
+    <mergeCell ref="D151:D155"/>
+    <mergeCell ref="E151:E154"/>
+    <mergeCell ref="H151:H155"/>
+    <mergeCell ref="A127:A136"/>
+    <mergeCell ref="B127:B136"/>
+    <mergeCell ref="C127:C136"/>
+    <mergeCell ref="D127:D136"/>
+    <mergeCell ref="E127:E135"/>
+    <mergeCell ref="H127:H136"/>
+    <mergeCell ref="A137:A146"/>
+    <mergeCell ref="B137:B146"/>
+    <mergeCell ref="C137:C146"/>
+    <mergeCell ref="D137:D146"/>
+    <mergeCell ref="E137:E145"/>
+    <mergeCell ref="H137:H146"/>
+    <mergeCell ref="A107:A116"/>
+    <mergeCell ref="B107:B116"/>
+    <mergeCell ref="C107:C116"/>
+    <mergeCell ref="D107:D116"/>
+    <mergeCell ref="E107:E115"/>
+    <mergeCell ref="H107:H116"/>
+    <mergeCell ref="A117:A126"/>
+    <mergeCell ref="B117:B126"/>
+    <mergeCell ref="C117:C126"/>
+    <mergeCell ref="D117:D126"/>
+    <mergeCell ref="E117:E125"/>
+    <mergeCell ref="H117:H126"/>
+    <mergeCell ref="E87:E95"/>
+    <mergeCell ref="H87:H96"/>
+    <mergeCell ref="A97:A106"/>
+    <mergeCell ref="B97:B106"/>
+    <mergeCell ref="C97:C106"/>
+    <mergeCell ref="D97:D106"/>
+    <mergeCell ref="E97:E105"/>
+    <mergeCell ref="H97:H106"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="D65:D76"/>
+    <mergeCell ref="H65:H76"/>
+    <mergeCell ref="A65:A76"/>
+    <mergeCell ref="E65:E75"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="E41:E49"/>
+    <mergeCell ref="H41:H50"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="H36:H40"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="H31:H35"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A16:A20"/>
@@ -6807,180 +6981,6 @@
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="C21:C25"/>
     <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="E41:E49"/>
-    <mergeCell ref="H41:H50"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="H36:H40"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="H31:H35"/>
-    <mergeCell ref="E87:E95"/>
-    <mergeCell ref="H87:H96"/>
-    <mergeCell ref="A97:A106"/>
-    <mergeCell ref="B97:B106"/>
-    <mergeCell ref="C97:C106"/>
-    <mergeCell ref="D97:D106"/>
-    <mergeCell ref="E97:E105"/>
-    <mergeCell ref="H97:H106"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="D65:D76"/>
-    <mergeCell ref="H65:H76"/>
-    <mergeCell ref="A65:A76"/>
-    <mergeCell ref="E65:E75"/>
-    <mergeCell ref="A107:A116"/>
-    <mergeCell ref="B107:B116"/>
-    <mergeCell ref="C107:C116"/>
-    <mergeCell ref="D107:D116"/>
-    <mergeCell ref="E107:E115"/>
-    <mergeCell ref="H107:H116"/>
-    <mergeCell ref="A117:A126"/>
-    <mergeCell ref="B117:B126"/>
-    <mergeCell ref="C117:C126"/>
-    <mergeCell ref="D117:D126"/>
-    <mergeCell ref="E117:E125"/>
-    <mergeCell ref="H117:H126"/>
-    <mergeCell ref="A127:A136"/>
-    <mergeCell ref="B127:B136"/>
-    <mergeCell ref="C127:C136"/>
-    <mergeCell ref="D127:D136"/>
-    <mergeCell ref="E127:E135"/>
-    <mergeCell ref="H127:H136"/>
-    <mergeCell ref="A137:A146"/>
-    <mergeCell ref="B137:B146"/>
-    <mergeCell ref="C137:C146"/>
-    <mergeCell ref="D137:D146"/>
-    <mergeCell ref="E137:E145"/>
-    <mergeCell ref="H137:H146"/>
-    <mergeCell ref="A147:A150"/>
-    <mergeCell ref="B147:B150"/>
-    <mergeCell ref="C147:C150"/>
-    <mergeCell ref="D147:D150"/>
-    <mergeCell ref="E147:E149"/>
-    <mergeCell ref="H147:H150"/>
-    <mergeCell ref="A151:A155"/>
-    <mergeCell ref="B151:B155"/>
-    <mergeCell ref="C151:C155"/>
-    <mergeCell ref="D151:D155"/>
-    <mergeCell ref="E151:E154"/>
-    <mergeCell ref="H151:H155"/>
-    <mergeCell ref="A160:A162"/>
-    <mergeCell ref="B160:B162"/>
-    <mergeCell ref="C160:C162"/>
-    <mergeCell ref="D160:D162"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="H160:H162"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="A156:A159"/>
-    <mergeCell ref="B156:B159"/>
-    <mergeCell ref="C156:C159"/>
-    <mergeCell ref="D156:D159"/>
-    <mergeCell ref="E156:E158"/>
-    <mergeCell ref="H156:H159"/>
-    <mergeCell ref="A77:A86"/>
-    <mergeCell ref="B77:B86"/>
-    <mergeCell ref="C77:C86"/>
-    <mergeCell ref="D77:D86"/>
-    <mergeCell ref="E77:E85"/>
-    <mergeCell ref="H77:H86"/>
-    <mergeCell ref="A87:A96"/>
-    <mergeCell ref="B87:B96"/>
-    <mergeCell ref="C87:C96"/>
-    <mergeCell ref="D87:D96"/>
-    <mergeCell ref="A168:A172"/>
-    <mergeCell ref="B168:B172"/>
-    <mergeCell ref="C168:C172"/>
-    <mergeCell ref="D168:D172"/>
-    <mergeCell ref="E168:E171"/>
-    <mergeCell ref="H168:H172"/>
-    <mergeCell ref="A163:A167"/>
-    <mergeCell ref="B163:B167"/>
-    <mergeCell ref="C163:C167"/>
-    <mergeCell ref="D163:D167"/>
-    <mergeCell ref="E163:E166"/>
-    <mergeCell ref="H163:H167"/>
-    <mergeCell ref="A178:A183"/>
-    <mergeCell ref="B178:B183"/>
-    <mergeCell ref="C178:C183"/>
-    <mergeCell ref="D178:D183"/>
-    <mergeCell ref="E178:E182"/>
-    <mergeCell ref="H178:H183"/>
-    <mergeCell ref="A173:A177"/>
-    <mergeCell ref="B173:B177"/>
-    <mergeCell ref="C173:C177"/>
-    <mergeCell ref="D173:D177"/>
-    <mergeCell ref="E173:E176"/>
-    <mergeCell ref="H173:H177"/>
-    <mergeCell ref="A203:H203"/>
-    <mergeCell ref="A204:H204"/>
-    <mergeCell ref="A206:A209"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="D206:D209"/>
-    <mergeCell ref="E206:E208"/>
-    <mergeCell ref="A184:A190"/>
-    <mergeCell ref="B184:B190"/>
-    <mergeCell ref="C184:C190"/>
-    <mergeCell ref="D184:D190"/>
-    <mergeCell ref="E184:E188"/>
-    <mergeCell ref="H184:H190"/>
-    <mergeCell ref="A196:A201"/>
-    <mergeCell ref="B196:B201"/>
-    <mergeCell ref="C196:C201"/>
-    <mergeCell ref="D196:D201"/>
-    <mergeCell ref="E196:E200"/>
-    <mergeCell ref="H196:H201"/>
-    <mergeCell ref="H206:H208"/>
-    <mergeCell ref="A210:A213"/>
-    <mergeCell ref="B210:B213"/>
-    <mergeCell ref="C210:C213"/>
-    <mergeCell ref="D210:D213"/>
-    <mergeCell ref="E210:E212"/>
-    <mergeCell ref="H210:H212"/>
-    <mergeCell ref="A3:H4"/>
-    <mergeCell ref="A223:H223"/>
-    <mergeCell ref="A215:H215"/>
-    <mergeCell ref="A216:H216"/>
-    <mergeCell ref="A218:A221"/>
-    <mergeCell ref="B218:B221"/>
-    <mergeCell ref="C218:C221"/>
-    <mergeCell ref="D218:D221"/>
-    <mergeCell ref="E218:E221"/>
-    <mergeCell ref="H218:H221"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="H5:H12"/>
-    <mergeCell ref="B65:B76"/>
-    <mergeCell ref="C65:C76"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="H55:H57"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="B41:B50"/>
-    <mergeCell ref="C41:C50"/>
-    <mergeCell ref="D41:D50"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1"/>
